--- a/R/data/quiz241125.xlsx
+++ b/R/data/quiz241125.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE98F11-E849-AD42-968B-57711E8763FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437598E4-5B26-A943-8FC5-9207287E02AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47040" yWindow="1480" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47040" yWindow="1460" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="487">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1259,6 +1259,238 @@
   <si>
     <t>용상임</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>detect5641@gmail.com</t>
+  </si>
+  <si>
+    <t>이주성</t>
+  </si>
+  <si>
+    <t>01/03</t>
+  </si>
+  <si>
+    <t>cindy_lol@naver.com</t>
+  </si>
+  <si>
+    <t>국어국문학전공</t>
+  </si>
+  <si>
+    <t>권한별</t>
+  </si>
+  <si>
+    <t>ju0_park@naver.com</t>
+  </si>
+  <si>
+    <t>박주영</t>
+  </si>
+  <si>
+    <t>12/13</t>
+  </si>
+  <si>
+    <t>4080jjh@gmail.com</t>
+  </si>
+  <si>
+    <t>장재환</t>
+  </si>
+  <si>
+    <t>4262cyj@naver.com</t>
+  </si>
+  <si>
+    <t>최윤진</t>
+  </si>
+  <si>
+    <t>05/10</t>
+  </si>
+  <si>
+    <t>yujin31836@gmail.com</t>
+  </si>
+  <si>
+    <t>최유진</t>
+  </si>
+  <si>
+    <t>09/19</t>
+  </si>
+  <si>
+    <t>slaim7888@gmail.com</t>
+  </si>
+  <si>
+    <t>이준민</t>
+  </si>
+  <si>
+    <t>ye_ji_02@naver.com</t>
+  </si>
+  <si>
+    <t>전예지</t>
+  </si>
+  <si>
+    <t>11/18</t>
+  </si>
+  <si>
+    <t>jungha051026@naver.com</t>
+  </si>
+  <si>
+    <t>윤정하</t>
+  </si>
+  <si>
+    <t>paulcho1004@naver.com</t>
+  </si>
+  <si>
+    <t>조민형</t>
+  </si>
+  <si>
+    <t>07/26</t>
+  </si>
+  <si>
+    <t>kkkssshhh2005@naver.com</t>
+  </si>
+  <si>
+    <t>김서희</t>
+  </si>
+  <si>
+    <t>10/19</t>
+  </si>
+  <si>
+    <t>qudcksl1216@gmail.com</t>
+  </si>
+  <si>
+    <t>경영</t>
+  </si>
+  <si>
+    <t>윤병찬</t>
+  </si>
+  <si>
+    <t>12/16</t>
+  </si>
+  <si>
+    <t>hug60600@gmail.com</t>
+  </si>
+  <si>
+    <t>황의건</t>
+  </si>
+  <si>
+    <t>12/25</t>
+  </si>
+  <si>
+    <t>b020305@naver.com</t>
+  </si>
+  <si>
+    <t>배성진</t>
+  </si>
+  <si>
+    <t>tlsh1282@naver.com</t>
+  </si>
+  <si>
+    <t>융합관광경영</t>
+  </si>
+  <si>
+    <t>원세한</t>
+  </si>
+  <si>
+    <t>alwnd816@gmail.com</t>
+  </si>
+  <si>
+    <t>한재은</t>
+  </si>
+  <si>
+    <t>09/27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2468pp@naver.com</t>
+  </si>
+  <si>
+    <t>식품영양학과ㅣ</t>
+  </si>
+  <si>
+    <t>박성빈</t>
+  </si>
+  <si>
+    <t>imhyeongu00@gmail.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어전공</t>
+  </si>
+  <si>
+    <t>임현구</t>
+  </si>
+  <si>
+    <t>jjy021026@gmail.com</t>
+  </si>
+  <si>
+    <t>전지환</t>
+  </si>
+  <si>
+    <t>snp040609@naver.com</t>
+  </si>
+  <si>
+    <t>박세나</t>
+  </si>
+  <si>
+    <t>doheehana@naver.com</t>
+  </si>
+  <si>
+    <t>김도희</t>
+  </si>
+  <si>
+    <t>10/27</t>
+  </si>
+  <si>
+    <t>eung4077@gmail.com</t>
+  </si>
+  <si>
+    <t>강은결</t>
+  </si>
+  <si>
+    <t>07/11</t>
+  </si>
+  <si>
+    <t>wlduddember6@gmail.com</t>
+  </si>
+  <si>
+    <t>이지영</t>
+  </si>
+  <si>
+    <t>12/06</t>
+  </si>
+  <si>
+    <t>narinsong3@gmail.com</t>
+  </si>
+  <si>
+    <t>송나린</t>
+  </si>
+  <si>
+    <t>efgh124@naver.com</t>
+  </si>
+  <si>
+    <t>정윤서</t>
+  </si>
+  <si>
+    <t>kth4159@gmail.com</t>
+  </si>
+  <si>
+    <t>김태희</t>
+  </si>
+  <si>
+    <t>03/19</t>
+  </si>
+  <si>
+    <t>ella2005710@gmail.com</t>
+  </si>
+  <si>
+    <t>김송이</t>
+  </si>
+  <si>
+    <t>07/10</t>
+  </si>
+  <si>
+    <t>kimteawan347@gmail.com</t>
+  </si>
+  <si>
+    <t>김태완</t>
+  </si>
+  <si>
+    <t>04/06</t>
   </si>
 </sst>
 </file>
@@ -1646,10 +1878,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1699,7 +1931,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N118" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N146" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -1926,11 +2158,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6644,7 +6876,7 @@
       <c r="D115" s="9">
         <v>20235209</v>
       </c>
-      <c r="E115" s="25" t="s">
+      <c r="E115" s="24" t="s">
         <v>409</v>
       </c>
       <c r="F115" s="10" t="s">
@@ -6791,10 +7023,1159 @@
       <c r="L118" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="M118" s="24"/>
       <c r="N118" s="23" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="8">
+        <v>45622.96630211806</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D119" s="9">
+        <v>20245230</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M119" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="4">
+        <v>45622.975617881944</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D120" s="5">
+        <v>20201007</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L120" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N120" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="8">
+        <v>45623.325865578707</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D121" s="9">
+        <v>20195170</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K121" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L121" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N121" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="4">
+        <v>45623.39583256944</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D122" s="5">
+        <v>20182436</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L122" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M122" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="8">
+        <v>45623.401020833335</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D123" s="9">
+        <v>20243048</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K123" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L123" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N123" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="4">
+        <v>45623.415293171296</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D124" s="5">
+        <v>20243961</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N124" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="8">
+        <v>45623.420294374999</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D125" s="9">
+        <v>20242428</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K125" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L125" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N125" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="4">
+        <v>45623.430818645837</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D126" s="5">
+        <v>20213839</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K126" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L126" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M126" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="8">
+        <v>45623.446938240741</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D127" s="9">
+        <v>20245213</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K127" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L127" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M127" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="4">
+        <v>45623.456981689815</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D128" s="5">
+        <v>20193836</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L128" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N128" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="8">
+        <v>45623.46535273148</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D129" s="9">
+        <v>20243210</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J129" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K129" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L129" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M129" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="4">
+        <v>45623.475745706019</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D130" s="5">
+        <v>20192926</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L130" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M130" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="8">
+        <v>45623.552146562499</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D131" s="9">
+        <v>20243065</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K131" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L131" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N131" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="4">
+        <v>45623.596375868059</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D132" s="5">
+        <v>20212418</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K132" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L132" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M132" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="8">
+        <v>45623.629900347223</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D133" s="9">
+        <v>20206623</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K133" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L133" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N133" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="20">
+        <v>45623.636143541662</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" s="21">
+        <v>20233060</v>
+      </c>
+      <c r="E134" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="F134" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="G134" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I134" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J134" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K134" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L134" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M134" s="25"/>
+      <c r="N134" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="8">
+        <v>45623.661326967587</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D135" s="9">
+        <v>20193813</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K135" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L135" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M135" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="4">
+        <v>45623.691078263888</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D136" s="5">
+        <v>20192575</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I136" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J136" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L136" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M136" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="8">
+        <v>45623.704236655089</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D137" s="9">
+        <v>20214143</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K137" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L137" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N137" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="4">
+        <v>45623.716606365742</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" s="5">
+        <v>20242957</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J138" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L138" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N138" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="8">
+        <v>45623.786721597222</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D139" s="9">
+        <v>2026215</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K139" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L139" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N139" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="4">
+        <v>45623.814267187496</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D140" s="5">
+        <v>20242201</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I140" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J140" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L140" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N140" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="8">
+        <v>45623.838893009262</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D141" s="9">
+        <v>20246639</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K141" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L141" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N141" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="4">
+        <v>45623.880105995369</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D142" s="5">
+        <v>20246248</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J142" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L142" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N142" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="8">
+        <v>45623.889737627316</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D143" s="9">
+        <v>20246282</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I143" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K143" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L143" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N143" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="4">
+        <v>45623.894403020837</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D144" s="5">
+        <v>20246230</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I144" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J144" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L144" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N144" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="8">
+        <v>45623.903723946758</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D145" s="9">
+        <v>20246222</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="F145" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J145" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K145" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L145" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N145" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="20">
+        <v>45623.925938576387</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D146" s="21">
+        <v>20212613</v>
+      </c>
+      <c r="E146" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="F146" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="G146" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J146" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K146" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L146" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M146" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="N146" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/R/data/quiz241125.xlsx
+++ b/R/data/quiz241125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437598E4-5B26-A943-8FC5-9207287E02AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114C308A-B50C-4442-837B-CE2BDD653B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47040" yWindow="1460" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="613">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1491,6 +1491,386 @@
   </si>
   <si>
     <t>04/06</t>
+  </si>
+  <si>
+    <t>bagj11532@gmail.com</t>
+  </si>
+  <si>
+    <t>박준형</t>
+  </si>
+  <si>
+    <t>02/07</t>
+  </si>
+  <si>
+    <t>eunse051013@naver.com</t>
+  </si>
+  <si>
+    <t>김은세</t>
+  </si>
+  <si>
+    <t>10/13</t>
+  </si>
+  <si>
+    <t>ms071207@naver.com</t>
+  </si>
+  <si>
+    <t>바이오메디컬</t>
+  </si>
+  <si>
+    <t>정민서</t>
+  </si>
+  <si>
+    <t>11/02</t>
+  </si>
+  <si>
+    <t>harypoter8947@gmail.com</t>
+  </si>
+  <si>
+    <t>김석희</t>
+  </si>
+  <si>
+    <t>for1369@gmail.com</t>
+  </si>
+  <si>
+    <t>성동진</t>
+  </si>
+  <si>
+    <t>leesy470666@gmail.com</t>
+  </si>
+  <si>
+    <t>이수용</t>
+  </si>
+  <si>
+    <t>01/10</t>
+  </si>
+  <si>
+    <t>dabinchoe05@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합학부</t>
+  </si>
+  <si>
+    <t>최다빈</t>
+  </si>
+  <si>
+    <t>01/17</t>
+  </si>
+  <si>
+    <t>sunshade132@gmail.com</t>
+  </si>
+  <si>
+    <t>박기택</t>
+  </si>
+  <si>
+    <t>11/25</t>
+  </si>
+  <si>
+    <t>20242925@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>경영학부</t>
+  </si>
+  <si>
+    <t>김민우</t>
+  </si>
+  <si>
+    <t>08/30</t>
+  </si>
+  <si>
+    <t>gmlfkr6241@naver.com</t>
+  </si>
+  <si>
+    <t>한희락</t>
+  </si>
+  <si>
+    <t>08/13</t>
+  </si>
+  <si>
+    <t>qortjdus27@naver.com</t>
+  </si>
+  <si>
+    <t>백서연</t>
+  </si>
+  <si>
+    <t>lucynam1010@gmail.com</t>
+  </si>
+  <si>
+    <t>남유정</t>
+  </si>
+  <si>
+    <t>10/10</t>
+  </si>
+  <si>
+    <t>yeonjej51@gmail.com</t>
+  </si>
+  <si>
+    <t>정연제</t>
+  </si>
+  <si>
+    <t>09/26</t>
+  </si>
+  <si>
+    <t>hje10314@naver.com</t>
+  </si>
+  <si>
+    <t>한지은</t>
+  </si>
+  <si>
+    <t>07/22</t>
+  </si>
+  <si>
+    <t>kayla1071702@gmail.com</t>
+  </si>
+  <si>
+    <t>임혜빈</t>
+  </si>
+  <si>
+    <t>12/08</t>
+  </si>
+  <si>
+    <t>bevery2685@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>조영태</t>
+  </si>
+  <si>
+    <t>09/05</t>
+  </si>
+  <si>
+    <t>blake4102@naver.com</t>
+  </si>
+  <si>
+    <t>김원래</t>
+  </si>
+  <si>
+    <t>03/09</t>
+  </si>
+  <si>
+    <t>0223wltn@naver.com</t>
+  </si>
+  <si>
+    <t>홍지수</t>
+  </si>
+  <si>
+    <t>02/23</t>
+  </si>
+  <si>
+    <t>a52154309@gmail.com</t>
+  </si>
+  <si>
+    <t>황우진</t>
+  </si>
+  <si>
+    <t>07/14</t>
+  </si>
+  <si>
+    <t>il8v6u@naver.com</t>
+  </si>
+  <si>
+    <t>최윤서</t>
+  </si>
+  <si>
+    <t>04/21</t>
+  </si>
+  <si>
+    <t>joo061222@gmail.com</t>
+  </si>
+  <si>
+    <t>강민주</t>
+  </si>
+  <si>
+    <t>12/22</t>
+  </si>
+  <si>
+    <t>simje9907@gmail.com</t>
+  </si>
+  <si>
+    <t>심재민</t>
+  </si>
+  <si>
+    <t>jaehun081805@gmail.com</t>
+  </si>
+  <si>
+    <t>이재훈</t>
+  </si>
+  <si>
+    <t>08/18</t>
+  </si>
+  <si>
+    <t>y5het3e@naver.com</t>
+  </si>
+  <si>
+    <t>박재근</t>
+  </si>
+  <si>
+    <t>09/25</t>
+  </si>
+  <si>
+    <t>kate7633@naver.com</t>
+  </si>
+  <si>
+    <t>이지수</t>
+  </si>
+  <si>
+    <t>dpdlvldzmfkd1218@naver.com</t>
+  </si>
+  <si>
+    <t>이다혜</t>
+  </si>
+  <si>
+    <t>12/18</t>
+  </si>
+  <si>
+    <t>kentoku0901@naver.com</t>
+  </si>
+  <si>
+    <t>김헌덕</t>
+  </si>
+  <si>
+    <t>09/01</t>
+  </si>
+  <si>
+    <t>anfytlrtk3@naver.com</t>
+  </si>
+  <si>
+    <t>윤가영</t>
+  </si>
+  <si>
+    <t>gyucheol0503@naver.com</t>
+  </si>
+  <si>
+    <t>홍규철</t>
+  </si>
+  <si>
+    <t>05/23</t>
+  </si>
+  <si>
+    <t>a68055637@gmail.com</t>
+  </si>
+  <si>
+    <t>이효민</t>
+  </si>
+  <si>
+    <t>11/07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>07/13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>youmakein@gmail.com</t>
+  </si>
+  <si>
+    <t>creeper_a@naver.com</t>
+  </si>
+  <si>
+    <t>최대현</t>
+  </si>
+  <si>
+    <t>09/02</t>
+  </si>
+  <si>
+    <t>ginggim0904@gmail.com</t>
+  </si>
+  <si>
+    <t>김무극</t>
+  </si>
+  <si>
+    <t>09/04</t>
+  </si>
+  <si>
+    <t>suji032091@naver.com</t>
+  </si>
+  <si>
+    <t>이선주</t>
+  </si>
+  <si>
+    <t>lucy1004486@naver.com</t>
+  </si>
+  <si>
+    <t>김소연</t>
+  </si>
+  <si>
+    <t>01/09</t>
+  </si>
+  <si>
+    <t>xogns3043@naver.com</t>
+  </si>
+  <si>
+    <t>김태훈</t>
+  </si>
+  <si>
+    <t>ehgmldo2@naver.com</t>
+  </si>
+  <si>
+    <t>데이터테크</t>
+  </si>
+  <si>
+    <t>박도희</t>
+  </si>
+  <si>
+    <t>08/26</t>
+  </si>
+  <si>
+    <t>qaz5316qaz@naver.com</t>
+  </si>
+  <si>
+    <t>이동기</t>
+  </si>
+  <si>
+    <t>jmkkom@naver.com</t>
+  </si>
+  <si>
+    <t>화학과</t>
+  </si>
+  <si>
+    <t>전민균</t>
+  </si>
+  <si>
+    <t>05/26</t>
+  </si>
+  <si>
+    <t>thwls5541@gmail.com</t>
+  </si>
+  <si>
+    <t>김소원</t>
+  </si>
+  <si>
+    <t>ujs4198@naver.com</t>
+  </si>
+  <si>
+    <t>엄준식</t>
+  </si>
+  <si>
+    <t>yeel6945@naver.com</t>
+  </si>
+  <si>
+    <t>이수빈</t>
+  </si>
+  <si>
+    <t>05/30</t>
+  </si>
+  <si>
+    <t>whrhdwn2003@gmail.com</t>
+  </si>
+  <si>
+    <t>조은서</t>
+  </si>
+  <si>
+    <t>07/28</t>
+  </si>
+  <si>
+    <t>fruitekomi@naver.com</t>
+  </si>
+  <si>
+    <t>김예은</t>
+  </si>
+  <si>
+    <t>10/08</t>
   </si>
 </sst>
 </file>
@@ -1931,7 +2311,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N146" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N190" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -2158,11 +2538,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N146"/>
+  <dimension ref="A1:N190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7679,7 +8059,6 @@
       <c r="L134" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="M134" s="25"/>
       <c r="N134" s="23" t="s">
         <v>35</v>
       </c>
@@ -8175,7 +8554,1811 @@
       <c r="M146" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="N146" s="25"/>
+    </row>
+    <row r="147" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="8">
+        <v>45623.971044247686</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D147" s="9">
+        <v>20244120</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="F147" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J147" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K147" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L147" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M147" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="4">
+        <v>45624.01148804398</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D148" s="5">
+        <v>20246225</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J148" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L148" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N148" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="8">
+        <v>45624.013782476854</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="D149" s="9">
+        <v>20193644</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I149" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J149" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K149" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L149" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M149" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="4">
+        <v>45624.02983540509</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D150" s="5">
+        <v>20231205</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I150" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J150" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K150" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L150" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N150" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="8">
+        <v>45624.046245011574</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D151" s="9">
+        <v>20243921</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I151" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J151" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K151" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L151" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M151" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="4">
+        <v>45624.057763344907</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D152" s="5">
+        <v>20243938</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I152" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J152" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K152" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L152" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N152" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="8">
+        <v>45624.064913148148</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="D153" s="9">
+        <v>20246780</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H153" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I153" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J153" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K153" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L153" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M153" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="4">
+        <v>45624.364776435184</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D154" s="5">
+        <v>20222526</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I154" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J154" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K154" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L154" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M154" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="8">
+        <v>45624.382941736112</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D155" s="9">
+        <v>20242925</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H155" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I155" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J155" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K155" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L155" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M155" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="4">
+        <v>45624.387995243058</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D156" s="5">
+        <v>20246303</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I156" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J156" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K156" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L156" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N156" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="8">
+        <v>45624.388184212963</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D157" s="9">
+        <v>20242971</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="F157" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I157" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J157" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K157" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L157" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M157" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="20">
+        <v>45624.416936875001</v>
+      </c>
+      <c r="B158" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D158" s="21">
+        <v>20233716</v>
+      </c>
+      <c r="E158" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="F158" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="G158" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H158" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I158" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J158" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K158" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L158" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M158" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="8">
+        <v>45624.503423761576</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D159" s="9">
+        <v>20241234</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="F159" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I159" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J159" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K159" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L159" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N159" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="4">
+        <v>45624.516961909721</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D160" s="5">
+        <v>20222367</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J160" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K160" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L160" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N160" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="8">
+        <v>45624.552008634259</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D161" s="9">
+        <v>20242347</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I161" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K161" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L161" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M161" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="4">
+        <v>45624.555621018517</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="D162" s="5">
+        <v>20243354</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I162" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J162" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K162" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L162" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N162" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="8">
+        <v>45624.556302592595</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D163" s="9">
+        <v>20213609</v>
+      </c>
+      <c r="E163" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H163" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J163" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K163" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L163" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N163" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="4">
+        <v>45624.563260243056</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D164" s="5">
+        <v>20243850</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I164" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L164" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M164" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="8">
+        <v>45624.569425034722</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D165" s="9">
+        <v>20243968</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="F165" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="G165" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H165" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I165" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J165" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K165" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L165" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M165" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="4">
+        <v>45624.589936770833</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D166" s="5">
+        <v>20242582</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I166" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J166" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K166" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L166" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M166" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="8">
+        <v>45624.594656921297</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D167" s="9">
+        <v>20243801</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="F167" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="G167" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H167" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I167" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J167" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K167" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L167" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M167" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="4">
+        <v>45624.596936273148</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D168" s="5">
+        <v>20242724</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I168" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J168" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K168" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L168" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M168" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="8">
+        <v>45624.600366481478</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D169" s="9">
+        <v>20242736</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="F169" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="G169" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H169" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I169" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J169" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K169" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L169" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N169" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="4">
+        <v>45624.601031805556</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D170" s="5">
+        <v>20215158</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I170" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J170" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K170" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L170" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N170" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="8">
+        <v>45624.612080694445</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D171" s="9">
+        <v>20242632</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="F171" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H171" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I171" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J171" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K171" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L171" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M171" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="4">
+        <v>45624.613634629626</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D172" s="5">
+        <v>20243933</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I172" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J172" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K172" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L172" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N172" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="8">
+        <v>45624.623017291669</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D173" s="9">
+        <v>20242314</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="F173" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="G173" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H173" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I173" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J173" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K173" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L173" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N173" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="4">
+        <v>45624.684557685185</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D174" s="5">
+        <v>20243830</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I174" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J174" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K174" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L174" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M174" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="8">
+        <v>45624.710781875001</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D175" s="9">
+        <v>20243650</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="F175" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I175" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J175" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K175" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L175" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M175" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="20">
+        <v>45624.716284594906</v>
+      </c>
+      <c r="B176" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="C176" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D176" s="21">
+        <v>20241077</v>
+      </c>
+      <c r="E176" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="F176" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="G176" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H176" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I176" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J176" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K176" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L176" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M176" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="8">
+        <v>45624.729050300928</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D177" s="9">
+        <v>20241106</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="F177" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="G177" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H177" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I177" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J177" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K177" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L177" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N177" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="4">
+        <v>45624.739567187498</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D178" s="5">
+        <v>20194153</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I178" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J178" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K178" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L178" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N178" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="8">
+        <v>45624.765531331017</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D179" s="9">
+        <v>20234110</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="F179" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="G179" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H179" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I179" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J179" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K179" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L179" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M179" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="4">
+        <v>45624.797736562497</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D180" s="5">
+        <v>20227157</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I180" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J180" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K180" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L180" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N180" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="8">
+        <v>45624.823992708334</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D181" s="9">
+        <v>20232512</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="F181" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="G181" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H181" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I181" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J181" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K181" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L181" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M181" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="4">
+        <v>45624.826361388885</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D182" s="5">
+        <v>20227040</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I182" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J182" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K182" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L182" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M182" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="8">
+        <v>45624.827088240738</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="D183" s="9">
+        <v>20213219</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="F183" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="G183" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H183" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I183" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J183" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K183" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L183" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M183" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="4">
+        <v>45624.84437663194</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" s="5">
+        <v>20192936</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I184" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J184" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K184" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L184" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M184" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="8">
+        <v>45624.870592222222</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="D185" s="9">
+        <v>20203425</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="F185" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="G185" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H185" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I185" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J185" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K185" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L185" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M185" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="4">
+        <v>45624.907060543977</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D186" s="5">
+        <v>20207065</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I186" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J186" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K186" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L186" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M186" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="8">
+        <v>45624.92662831019</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D187" s="9">
+        <v>20197118</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="F187" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="G187" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H187" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I187" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J187" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K187" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L187" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N187" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="4">
+        <v>45624.983634293982</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" s="5">
+        <v>20203635</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I188" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J188" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K188" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L188" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M188" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="8">
+        <v>45624.989134571762</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D189" s="9">
+        <v>20232750</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="F189" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="G189" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H189" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I189" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J189" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K189" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L189" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N189" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="20">
+        <v>45624.991384351852</v>
+      </c>
+      <c r="B190" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="C190" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D190" s="21">
+        <v>20233710</v>
+      </c>
+      <c r="E190" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="F190" s="22" t="s">
+        <v>612</v>
+      </c>
+      <c r="G190" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H190" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I190" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J190" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K190" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L190" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M190" s="25"/>
+      <c r="N190" s="23" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/R/data/quiz241125.xlsx
+++ b/R/data/quiz241125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114C308A-B50C-4442-837B-CE2BDD653B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A9C0EE-0DF0-9443-9486-BF05A3B175B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47040" yWindow="1460" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4051" uniqueCount="1074">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1871,6 +1871,1400 @@
   </si>
   <si>
     <t>10/08</t>
+  </si>
+  <si>
+    <t>chorok052150@naver.com</t>
+  </si>
+  <si>
+    <t>김미니</t>
+  </si>
+  <si>
+    <t>08/12</t>
+  </si>
+  <si>
+    <t>915rlaalstjd@naver.com</t>
+  </si>
+  <si>
+    <t>스마트IOt</t>
+  </si>
+  <si>
+    <t>김민성</t>
+  </si>
+  <si>
+    <t>tomas313@naver.com</t>
+  </si>
+  <si>
+    <t>라태민</t>
+  </si>
+  <si>
+    <t>03/13</t>
+  </si>
+  <si>
+    <t>sally200408@gmail.com</t>
+  </si>
+  <si>
+    <t>박경화</t>
+  </si>
+  <si>
+    <t>jennydz@naver.com</t>
+  </si>
+  <si>
+    <t>허지수</t>
+  </si>
+  <si>
+    <t>k1j40405@gmail.com</t>
+  </si>
+  <si>
+    <t>김진아</t>
+  </si>
+  <si>
+    <t>04/05</t>
+  </si>
+  <si>
+    <t>donghyun6652@gmail.com</t>
+  </si>
+  <si>
+    <t>한동현</t>
+  </si>
+  <si>
+    <t>bgm5082@gmail.com</t>
+  </si>
+  <si>
+    <t>배경민</t>
+  </si>
+  <si>
+    <t>donghunea@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터학과</t>
+  </si>
+  <si>
+    <t>한동훈</t>
+  </si>
+  <si>
+    <t>01/01</t>
+  </si>
+  <si>
+    <t>limjh3027@naver.com</t>
+  </si>
+  <si>
+    <t>임종현</t>
+  </si>
+  <si>
+    <t>07/17</t>
+  </si>
+  <si>
+    <t>h20241207@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>문소정</t>
+  </si>
+  <si>
+    <t>0616sdh@naver.com</t>
+  </si>
+  <si>
+    <t>신동현</t>
+  </si>
+  <si>
+    <t>06/16</t>
+  </si>
+  <si>
+    <t>akeb110@naver.com</t>
+  </si>
+  <si>
+    <t>김은빈</t>
+  </si>
+  <si>
+    <t>11/01</t>
+  </si>
+  <si>
+    <t>tidlswjddms@naver.com</t>
+  </si>
+  <si>
+    <t>임정은</t>
+  </si>
+  <si>
+    <t>03/02</t>
+  </si>
+  <si>
+    <t>whovian2@naver.com</t>
+  </si>
+  <si>
+    <t>이새한</t>
+  </si>
+  <si>
+    <t>01/04</t>
+  </si>
+  <si>
+    <t>park_minkyu@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터과</t>
+  </si>
+  <si>
+    <t>박민규</t>
+  </si>
+  <si>
+    <t>08/16</t>
+  </si>
+  <si>
+    <t>obbobb7@gmail.com</t>
+  </si>
+  <si>
+    <t>구재영</t>
+  </si>
+  <si>
+    <t>03/16</t>
+  </si>
+  <si>
+    <t>kimguswls6685@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT전공</t>
+  </si>
+  <si>
+    <t>김현진</t>
+  </si>
+  <si>
+    <t>ejsl5231@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠학과</t>
+  </si>
+  <si>
+    <t>이유찬</t>
+  </si>
+  <si>
+    <t>05/08</t>
+  </si>
+  <si>
+    <t>twenty__dec@naver.com</t>
+  </si>
+  <si>
+    <t>채희주</t>
+  </si>
+  <si>
+    <t>12/20</t>
+  </si>
+  <si>
+    <t>cobas67@naver.com</t>
+  </si>
+  <si>
+    <t>스마트iot</t>
+  </si>
+  <si>
+    <t>박근혁</t>
+  </si>
+  <si>
+    <t>04/20</t>
+  </si>
+  <si>
+    <t>kter0506@naver.com</t>
+  </si>
+  <si>
+    <t>김태은</t>
+  </si>
+  <si>
+    <t>06/13</t>
+  </si>
+  <si>
+    <t>jhue0901@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌비지니스</t>
+  </si>
+  <si>
+    <t>전하율</t>
+  </si>
+  <si>
+    <t>12/07</t>
+  </si>
+  <si>
+    <t>haeunlife@naver.com</t>
+  </si>
+  <si>
+    <t>오하은</t>
+  </si>
+  <si>
+    <t>10/07</t>
+  </si>
+  <si>
+    <t>jin0321558@gmail.cpm</t>
+  </si>
+  <si>
+    <t>융합과학수사학과</t>
+  </si>
+  <si>
+    <t>전시연</t>
+  </si>
+  <si>
+    <t>kokoung12@naver.com</t>
+  </si>
+  <si>
+    <t>권호영</t>
+  </si>
+  <si>
+    <t>02/25</t>
+  </si>
+  <si>
+    <t>ddoyeong0509@gmail.com</t>
+  </si>
+  <si>
+    <t>윤소영</t>
+  </si>
+  <si>
+    <t>05/09</t>
+  </si>
+  <si>
+    <t>raon02271@naver.com</t>
+  </si>
+  <si>
+    <t>이채윤</t>
+  </si>
+  <si>
+    <t>11/28</t>
+  </si>
+  <si>
+    <t>ann12ann1209@gmail.com</t>
+  </si>
+  <si>
+    <t>김혜원</t>
+  </si>
+  <si>
+    <t>12/09</t>
+  </si>
+  <si>
+    <t>alyssa3257@naver.com</t>
+  </si>
+  <si>
+    <t>전영주</t>
+  </si>
+  <si>
+    <t>02/18</t>
+  </si>
+  <si>
+    <t>smainas20@naver.com</t>
+  </si>
+  <si>
+    <t>dltlgus1119@naver.com</t>
+  </si>
+  <si>
+    <t>이시현</t>
+  </si>
+  <si>
+    <t>11/19</t>
+  </si>
+  <si>
+    <t>ataraxia050508@naver.com</t>
+  </si>
+  <si>
+    <t>박정호</t>
+  </si>
+  <si>
+    <t>mkjk1227@naver.com</t>
+  </si>
+  <si>
+    <t>정민기</t>
+  </si>
+  <si>
+    <t>12/27</t>
+  </si>
+  <si>
+    <t>iwhwigw836292@naver.com</t>
+  </si>
+  <si>
+    <t>김나현</t>
+  </si>
+  <si>
+    <t>07/29</t>
+  </si>
+  <si>
+    <t>reasonbeans@naver.con</t>
+  </si>
+  <si>
+    <t>이유빈</t>
+  </si>
+  <si>
+    <t>zzun1414@naver.com</t>
+  </si>
+  <si>
+    <t>반도체·디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>황준영</t>
+  </si>
+  <si>
+    <t>01/20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlaskrud0917@naver.com</t>
+  </si>
+  <si>
+    <t>김나경</t>
+  </si>
+  <si>
+    <t>09/17</t>
+  </si>
+  <si>
+    <t>raon2812@naver.com</t>
+  </si>
+  <si>
+    <t>최라온</t>
+  </si>
+  <si>
+    <t>08/02</t>
+  </si>
+  <si>
+    <t>gee30901@naver.com</t>
+  </si>
+  <si>
+    <t>박예원</t>
+  </si>
+  <si>
+    <t>ytkay05@gmail.com</t>
+  </si>
+  <si>
+    <t>김영민</t>
+  </si>
+  <si>
+    <t>03/08</t>
+  </si>
+  <si>
+    <t>baeseung1211@gmail.com</t>
+  </si>
+  <si>
+    <t>배승혁</t>
+  </si>
+  <si>
+    <t>12/11</t>
+  </si>
+  <si>
+    <t>t01094887068@gmail.com</t>
+  </si>
+  <si>
+    <t>손민재</t>
+  </si>
+  <si>
+    <t>towp7563@gmail.com</t>
+  </si>
+  <si>
+    <t>오승현</t>
+  </si>
+  <si>
+    <t>rer220@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠ㅑㅆ</t>
+  </si>
+  <si>
+    <t>김대명</t>
+  </si>
+  <si>
+    <t>dayae6762@naver.com</t>
+  </si>
+  <si>
+    <t>장다예</t>
+  </si>
+  <si>
+    <t>gangjunu@naver.com</t>
+  </si>
+  <si>
+    <t>강준우</t>
+  </si>
+  <si>
+    <t>06/18</t>
+  </si>
+  <si>
+    <t>ansk999@gmail.com</t>
+  </si>
+  <si>
+    <t>위수현</t>
+  </si>
+  <si>
+    <t>07/08</t>
+  </si>
+  <si>
+    <t>07/04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02/20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wnsrl2498@naver.com</t>
+  </si>
+  <si>
+    <t>김준기</t>
+  </si>
+  <si>
+    <t>zmgofk1591@gmail.com</t>
+  </si>
+  <si>
+    <t>AI로봇융합</t>
+  </si>
+  <si>
+    <t>박하늘</t>
+  </si>
+  <si>
+    <t>cgim2421@gmail.com</t>
+  </si>
+  <si>
+    <t>김채윤</t>
+  </si>
+  <si>
+    <t>jenniferdy@naver.com</t>
+  </si>
+  <si>
+    <t>권도연</t>
+  </si>
+  <si>
+    <t>01/28</t>
+  </si>
+  <si>
+    <t>mjys9155@gmail.com</t>
+  </si>
+  <si>
+    <t>hanyeong09@naver.com</t>
+  </si>
+  <si>
+    <t>이한영</t>
+  </si>
+  <si>
+    <t>mi3107359@gmail.com</t>
+  </si>
+  <si>
+    <t>이미진</t>
+  </si>
+  <si>
+    <t>10/05</t>
+  </si>
+  <si>
+    <t>httv08@naver.com</t>
+  </si>
+  <si>
+    <t>전현태</t>
+  </si>
+  <si>
+    <t>wooyoomilk@naver.com</t>
+  </si>
+  <si>
+    <t>우연준</t>
+  </si>
+  <si>
+    <t>03/01</t>
+  </si>
+  <si>
+    <t>altigerlee@gmail.com</t>
+  </si>
+  <si>
+    <t>AI의료융합전공</t>
+  </si>
+  <si>
+    <t>이재현</t>
+  </si>
+  <si>
+    <t>ye1651@naver.com</t>
+  </si>
+  <si>
+    <t>전예은</t>
+  </si>
+  <si>
+    <t>01/18</t>
+  </si>
+  <si>
+    <t>kcwel1109@gmail.com</t>
+  </si>
+  <si>
+    <t>고미연</t>
+  </si>
+  <si>
+    <t>11/09</t>
+  </si>
+  <si>
+    <t>123plokml123@gmail.com</t>
+  </si>
+  <si>
+    <t>지현배</t>
+  </si>
+  <si>
+    <t>02/02</t>
+  </si>
+  <si>
+    <t>kingdom980201@gmail.com</t>
+  </si>
+  <si>
+    <t>언어청각학과</t>
+  </si>
+  <si>
+    <t>박성경</t>
+  </si>
+  <si>
+    <t>jmju0711@naver.com</t>
+  </si>
+  <si>
+    <t>정민주</t>
+  </si>
+  <si>
+    <t>appmax1115@gmail.com</t>
+  </si>
+  <si>
+    <t>이민석</t>
+  </si>
+  <si>
+    <t>liz030404@naver.com</t>
+  </si>
+  <si>
+    <t>solepkinsg@gmail.com</t>
+  </si>
+  <si>
+    <t>박인성</t>
+  </si>
+  <si>
+    <t>03/30</t>
+  </si>
+  <si>
+    <t>tjdrjs04@naver.com</t>
+  </si>
+  <si>
+    <t>장성건</t>
+  </si>
+  <si>
+    <t>oys55736@gmail.com</t>
+  </si>
+  <si>
+    <t>오윤서</t>
+  </si>
+  <si>
+    <t>06/28</t>
+  </si>
+  <si>
+    <t>his86814189@gmail.com</t>
+  </si>
+  <si>
+    <t>황인성</t>
+  </si>
+  <si>
+    <t>qkhkasin17@naver.com</t>
+  </si>
+  <si>
+    <t>박가현</t>
+  </si>
+  <si>
+    <t>ryul1128@naver.com</t>
+  </si>
+  <si>
+    <t>김률아</t>
+  </si>
+  <si>
+    <t>orientfun@gmail.com</t>
+  </si>
+  <si>
+    <t>이동화</t>
+  </si>
+  <si>
+    <t>08/04</t>
+  </si>
+  <si>
+    <t>pumo2928@gmail.com</t>
+  </si>
+  <si>
+    <t>tigerhaha1@naver.com</t>
+  </si>
+  <si>
+    <t>김민호</t>
+  </si>
+  <si>
+    <t>cheun0423@gmail.com</t>
+  </si>
+  <si>
+    <t>이채은</t>
+  </si>
+  <si>
+    <t>rivernine369@naver.com</t>
+  </si>
+  <si>
+    <t>강재구</t>
+  </si>
+  <si>
+    <t>sssm08155@gmail.com</t>
+  </si>
+  <si>
+    <t>윤희주</t>
+  </si>
+  <si>
+    <t>11/29</t>
+  </si>
+  <si>
+    <t>sihyune1104@gmail.com</t>
+  </si>
+  <si>
+    <t>안시현</t>
+  </si>
+  <si>
+    <t>11/04</t>
+  </si>
+  <si>
+    <t>05/14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>youngold057@gmail.com</t>
+  </si>
+  <si>
+    <t>윤태영</t>
+  </si>
+  <si>
+    <t>07/23</t>
+  </si>
+  <si>
+    <t>kylebusy@naver.com</t>
+  </si>
+  <si>
+    <t>이동훈</t>
+  </si>
+  <si>
+    <t>08/03</t>
+  </si>
+  <si>
+    <t>0524psu@gmail.com</t>
+  </si>
+  <si>
+    <t>박상언</t>
+  </si>
+  <si>
+    <t>05/24</t>
+  </si>
+  <si>
+    <t>Psj050317@naver.com</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>lion5166@naver.com</t>
+  </si>
+  <si>
+    <t>김정연</t>
+  </si>
+  <si>
+    <t>10/03</t>
+  </si>
+  <si>
+    <t>kwonseoyoung0923@gmail.com</t>
+  </si>
+  <si>
+    <t>권서영</t>
+  </si>
+  <si>
+    <t>schoe357@gmail.com</t>
+  </si>
+  <si>
+    <t>최성민</t>
+  </si>
+  <si>
+    <t>03/22</t>
+  </si>
+  <si>
+    <t>leeeunbi0717@naver.com</t>
+  </si>
+  <si>
+    <t>이은비</t>
+  </si>
+  <si>
+    <t>yumi0901gami@gmail.com</t>
+  </si>
+  <si>
+    <t>ss0001234@naver.com</t>
+  </si>
+  <si>
+    <t>김세은</t>
+  </si>
+  <si>
+    <t>kmu2916@maver.com</t>
+  </si>
+  <si>
+    <t>강민욱</t>
+  </si>
+  <si>
+    <t>10/11</t>
+  </si>
+  <si>
+    <t>sshee718@gmail.com</t>
+  </si>
+  <si>
+    <t>권도운</t>
+  </si>
+  <si>
+    <t>07/16</t>
+  </si>
+  <si>
+    <t>yeongjus6552@gmail.com</t>
+  </si>
+  <si>
+    <t>서영주</t>
+  </si>
+  <si>
+    <t>01/29</t>
+  </si>
+  <si>
+    <t>jdragon0151@gmail.com</t>
+  </si>
+  <si>
+    <t>신준용</t>
+  </si>
+  <si>
+    <t>08/20</t>
+  </si>
+  <si>
+    <t>uhan0802@gmail.com</t>
+  </si>
+  <si>
+    <t>이유한</t>
+  </si>
+  <si>
+    <t>kyj57980@naver.com</t>
+  </si>
+  <si>
+    <t>김예진</t>
+  </si>
+  <si>
+    <t>dlalstmd03@gmail.com</t>
+  </si>
+  <si>
+    <t>이민승</t>
+  </si>
+  <si>
+    <t>yxnjxn0331@gmail.com</t>
+  </si>
+  <si>
+    <t>배윤진</t>
+  </si>
+  <si>
+    <t>shasha4321@naver.com</t>
+  </si>
+  <si>
+    <t>경영학</t>
+  </si>
+  <si>
+    <t>정다영</t>
+  </si>
+  <si>
+    <t>1kdcf@naver.com</t>
+  </si>
+  <si>
+    <t>송준영</t>
+  </si>
+  <si>
+    <t>qwe92517@gmail.com</t>
+  </si>
+  <si>
+    <t>이진영</t>
+  </si>
+  <si>
+    <t>ginny1024@naver.com</t>
+  </si>
+  <si>
+    <t>김희원</t>
+  </si>
+  <si>
+    <t>10/24</t>
+  </si>
+  <si>
+    <t>09/23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kimminseon2102@naver.com</t>
+  </si>
+  <si>
+    <t>김민선</t>
+  </si>
+  <si>
+    <t>ystop061012@naver.com</t>
+  </si>
+  <si>
+    <t>손연수</t>
+  </si>
+  <si>
+    <t>jyoon2233@naver.com</t>
+  </si>
+  <si>
+    <t>신정윤</t>
+  </si>
+  <si>
+    <t>kje9714@gmail.com</t>
+  </si>
+  <si>
+    <t>김재은</t>
+  </si>
+  <si>
+    <t>yssong1919@naver.com</t>
+  </si>
+  <si>
+    <t>송예상</t>
+  </si>
+  <si>
+    <t>08/23</t>
+  </si>
+  <si>
+    <t>dlaehdghks123@gmail.com</t>
+  </si>
+  <si>
+    <t>임동환</t>
+  </si>
+  <si>
+    <t>whrudghks030604@naver.com</t>
+  </si>
+  <si>
+    <t>조경환</t>
+  </si>
+  <si>
+    <t>06/04</t>
+  </si>
+  <si>
+    <t>sueuisa04@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융학부</t>
+  </si>
+  <si>
+    <t>신동윤</t>
+  </si>
+  <si>
+    <t>baeksa01@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>서휘도</t>
+  </si>
+  <si>
+    <t>0214lily@naver.com</t>
+  </si>
+  <si>
+    <t>김가희</t>
+  </si>
+  <si>
+    <t>02/26</t>
+  </si>
+  <si>
+    <t>wlgus4770752@naver.com</t>
+  </si>
+  <si>
+    <t>의예과</t>
+  </si>
+  <si>
+    <t>김지현</t>
+  </si>
+  <si>
+    <t>guj2205146@gmail.com</t>
+  </si>
+  <si>
+    <t>강의주</t>
+  </si>
+  <si>
+    <t>wldus0859@gmail.com</t>
+  </si>
+  <si>
+    <t>박지연</t>
+  </si>
+  <si>
+    <t>09/21</t>
+  </si>
+  <si>
+    <t>ab47cd32@gmail.com</t>
+  </si>
+  <si>
+    <t>우로겸</t>
+  </si>
+  <si>
+    <t>smarthulk0318@naver.com</t>
+  </si>
+  <si>
+    <t>조성민</t>
+  </si>
+  <si>
+    <t>taewon16@naver.com</t>
+  </si>
+  <si>
+    <t>류태원</t>
+  </si>
+  <si>
+    <t>01/16</t>
+  </si>
+  <si>
+    <t>hihi2679@gmail.com</t>
+  </si>
+  <si>
+    <t>박서현</t>
+  </si>
+  <si>
+    <t>11/26</t>
+  </si>
+  <si>
+    <t>ncu11069@naver.com</t>
+  </si>
+  <si>
+    <t>이규민</t>
+  </si>
+  <si>
+    <t>02/16</t>
+  </si>
+  <si>
+    <t>mt1661@naver.com</t>
+  </si>
+  <si>
+    <t>콘탠츠IT</t>
+  </si>
+  <si>
+    <t>정성민</t>
+  </si>
+  <si>
+    <t>chhs337@naver.com</t>
+  </si>
+  <si>
+    <t>최홍서</t>
+  </si>
+  <si>
+    <t>siqyy2003@gmail.com</t>
+  </si>
+  <si>
+    <t>양민서</t>
+  </si>
+  <si>
+    <t>minchan6020@gmail.com</t>
+  </si>
+  <si>
+    <t>미디이스쿨</t>
+  </si>
+  <si>
+    <t>김민찬</t>
+  </si>
+  <si>
+    <t>whalsrl124@naver.com</t>
+  </si>
+  <si>
+    <t>조민기</t>
+  </si>
+  <si>
+    <t>dbdud123456@gmail.com</t>
+  </si>
+  <si>
+    <t>원유영</t>
+  </si>
+  <si>
+    <t>ekzkdi12@naver.com</t>
+  </si>
+  <si>
+    <t>박정민</t>
+  </si>
+  <si>
+    <t>mmin121420@naver.com</t>
+  </si>
+  <si>
+    <t>김승민</t>
+  </si>
+  <si>
+    <t>12/14</t>
+  </si>
+  <si>
+    <t>dmtn0001@naver.com</t>
+  </si>
+  <si>
+    <t>김의수</t>
+  </si>
+  <si>
+    <t>01/22</t>
+  </si>
+  <si>
+    <t>ydchufd@naver.com</t>
+  </si>
+  <si>
+    <t>정유민</t>
+  </si>
+  <si>
+    <t>02/21</t>
+  </si>
+  <si>
+    <t>jw010705@naver.com</t>
+  </si>
+  <si>
+    <t>유정우</t>
+  </si>
+  <si>
+    <t>07/05</t>
+  </si>
+  <si>
+    <t>play030205@naver.com</t>
+  </si>
+  <si>
+    <t>조민</t>
+  </si>
+  <si>
+    <t>02/05</t>
+  </si>
+  <si>
+    <t>yohihong@gmail.com</t>
+  </si>
+  <si>
+    <t>20245161`</t>
+  </si>
+  <si>
+    <t>민홍기</t>
+  </si>
+  <si>
+    <t>05/15</t>
+  </si>
+  <si>
+    <t>ujeong1030@gmail.com</t>
+  </si>
+  <si>
+    <t>최유정</t>
+  </si>
+  <si>
+    <t>10/30</t>
+  </si>
+  <si>
+    <t>leedug87@gmail.com</t>
+  </si>
+  <si>
+    <t>이두현</t>
+  </si>
+  <si>
+    <t>kbi70722@gmail.com</t>
+  </si>
+  <si>
+    <t>김병일</t>
+  </si>
+  <si>
+    <t>11/21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02/24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">08/23 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03/07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>obokboki@naver.com</t>
+  </si>
+  <si>
+    <t>최서윤</t>
+  </si>
+  <si>
+    <t>02/10</t>
+  </si>
+  <si>
+    <t>yongwoo7701@gmail.com</t>
+  </si>
+  <si>
+    <t>유용우</t>
+  </si>
+  <si>
+    <t>jiyewon5555@gmail.com</t>
+  </si>
+  <si>
+    <t>지예원</t>
+  </si>
+  <si>
+    <t>kmhhth5@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">체육학과 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">최진호 </t>
+  </si>
+  <si>
+    <t>03jungwoo@naver.com</t>
+  </si>
+  <si>
+    <t>김정우</t>
+  </si>
+  <si>
+    <t>07/30</t>
+  </si>
+  <si>
+    <t>chjames2005@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 데이터사이언스학부</t>
+  </si>
+  <si>
+    <t>최재현</t>
+  </si>
+  <si>
+    <t>scott1234698@gmail.com</t>
+  </si>
+  <si>
+    <t>우성진</t>
+  </si>
+  <si>
+    <t>mnnnmm22@naver.com</t>
+  </si>
+  <si>
+    <t>고현아</t>
+  </si>
+  <si>
+    <t>chiyoon12@gmail.com</t>
+  </si>
+  <si>
+    <t>김치윤</t>
+  </si>
+  <si>
+    <t>minheart7844@gmail.com</t>
+  </si>
+  <si>
+    <t>권민</t>
+  </si>
+  <si>
+    <t>minsung5342@gmail.com</t>
+  </si>
+  <si>
+    <t>02/09</t>
+  </si>
+  <si>
+    <t>houng5011@naver.com</t>
+  </si>
+  <si>
+    <t>홍성원</t>
+  </si>
+  <si>
+    <t>01/26</t>
+  </si>
+  <si>
+    <t>kby5432@naver.com</t>
+  </si>
+  <si>
+    <t>윤경빈</t>
+  </si>
+  <si>
+    <t>04/23</t>
+  </si>
+  <si>
+    <t>pdh9467472@gmail.com</t>
+  </si>
+  <si>
+    <t>법</t>
+  </si>
+  <si>
+    <t>박두환</t>
+  </si>
+  <si>
+    <t>tjtkdwns0909@Naver.com</t>
+  </si>
+  <si>
+    <t>서상준</t>
+  </si>
+  <si>
+    <t>sujdiamond@gmail.com</t>
+  </si>
+  <si>
+    <t>심유진</t>
+  </si>
+  <si>
+    <t>05/16</t>
+  </si>
+  <si>
+    <t>leedowon567@naver.com</t>
+  </si>
+  <si>
+    <t>이도원</t>
+  </si>
+  <si>
+    <t>06kongkongsoon@gmail.com</t>
+  </si>
+  <si>
+    <t>이서연</t>
+  </si>
+  <si>
+    <t>08/22</t>
+  </si>
+  <si>
+    <t>jkmy2516@naver.com</t>
+  </si>
+  <si>
+    <t>장석빈</t>
+  </si>
+  <si>
+    <t>5tmddk@naver.com</t>
+  </si>
+  <si>
+    <t>최승아</t>
+  </si>
+  <si>
+    <t>qkfdmltls@naver.com</t>
+  </si>
+  <si>
+    <t>조혜람</t>
+  </si>
+  <si>
+    <t>02/06</t>
+  </si>
+  <si>
+    <t>opkl52@naver.com</t>
+  </si>
+  <si>
+    <t>유승미</t>
+  </si>
+  <si>
+    <t>07/25</t>
+  </si>
+  <si>
+    <t>chsmdfur123@naver.com</t>
+  </si>
+  <si>
+    <t>금융재무</t>
+  </si>
+  <si>
+    <t>이한얼</t>
+  </si>
+  <si>
+    <t>peony.chung04@gmail.com</t>
+  </si>
+  <si>
+    <t>정수영</t>
+  </si>
+  <si>
+    <t>7dhw010@gmail.com</t>
+  </si>
+  <si>
+    <t>동형원</t>
+  </si>
+  <si>
+    <t>10/23</t>
+  </si>
+  <si>
+    <t>jh2600646@naver.com</t>
+  </si>
+  <si>
+    <t>데이터사이언스</t>
+  </si>
+  <si>
+    <t>박지훈</t>
+  </si>
+  <si>
+    <t>yoonbin0304@naver.com</t>
+  </si>
+  <si>
+    <t>최윤빈</t>
+  </si>
+  <si>
+    <t>03/04</t>
+  </si>
+  <si>
+    <t>pcw5766@naver.com</t>
+  </si>
+  <si>
+    <t>박찬웅</t>
+  </si>
+  <si>
+    <t>02/12</t>
+  </si>
+  <si>
+    <t>kmmyy209@gmail.com</t>
+  </si>
+  <si>
+    <t>김명은</t>
+  </si>
+  <si>
+    <t>wlsqhwlsqh21@naver.com</t>
+  </si>
+  <si>
+    <t>심진보</t>
+  </si>
+  <si>
+    <t>ism050204@naver.com</t>
+  </si>
+  <si>
+    <t>junsa215909@naver.com</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>10/22</t>
+  </si>
+  <si>
+    <t>oo3198@naver.com</t>
+  </si>
+  <si>
+    <t>심현진</t>
+  </si>
+  <si>
+    <t>marlboroe53@naver.com</t>
+  </si>
+  <si>
+    <t>08/29</t>
+  </si>
+  <si>
+    <t>dongkyo4@gmail.com</t>
+  </si>
+  <si>
+    <t>이동교</t>
+  </si>
+  <si>
+    <t>10/29</t>
+  </si>
+  <si>
+    <t>hcheon27@gmail.com</t>
+  </si>
+  <si>
+    <t>천하윤</t>
+  </si>
+  <si>
+    <t>wjsgkdms4@naver.com</t>
+  </si>
+  <si>
+    <t>전하은</t>
+  </si>
+  <si>
+    <t>leejhzzang2005@naver.com</t>
+  </si>
+  <si>
+    <t>이주현</t>
+  </si>
+  <si>
+    <t>s454s@naver.com</t>
+  </si>
+  <si>
+    <t>이동주</t>
+  </si>
+  <si>
+    <t>soyeong6832@gmail.com</t>
+  </si>
+  <si>
+    <t>지소영</t>
+  </si>
+  <si>
+    <t>01/14</t>
+  </si>
+  <si>
+    <t>ysh050116@naver.com</t>
+  </si>
+  <si>
+    <t>윤시한</t>
+  </si>
+  <si>
+    <t>minwl19@naver.com</t>
+  </si>
+  <si>
+    <t>조민지</t>
+  </si>
+  <si>
+    <t>08/15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2311,7 +3705,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N190" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N368" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -2538,11 +3932,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N190"/>
+  <dimension ref="A1:N368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E199" sqref="E199"/>
+      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F372" sqref="F372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10355,8 +11749,7306 @@
       <c r="L190" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="M190" s="25"/>
       <c r="N190" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="8">
+        <v>45625.048126585651</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D191" s="9">
+        <v>20242307</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="F191" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="G191" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H191" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I191" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J191" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K191" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L191" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N191" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="4">
+        <v>45625.048487222222</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="D192" s="5">
+        <v>20205133</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H192" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I192" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J192" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K192" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L192" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M192" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="8">
+        <v>45625.580021261572</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D193" s="9">
+        <v>20214116</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="F193" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="G193" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H193" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I193" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J193" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K193" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L193" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M193" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="4">
+        <v>45625.624209166665</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D194" s="5">
+        <v>20212818</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G194" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I194" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J194" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K194" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L194" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N194" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="8">
+        <v>45625.63174430556</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D195" s="9">
+        <v>20213543</v>
+      </c>
+      <c r="E195" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="F195" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="G195" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H195" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I195" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J195" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K195" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L195" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N195" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="4">
+        <v>45625.647983333329</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D196" s="5">
+        <v>20243408</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I196" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J196" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K196" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L196" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M196" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="8">
+        <v>45625.659110590277</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D197" s="9">
+        <v>20246300</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="F197" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="G197" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H197" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I197" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J197" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K197" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L197" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M197" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="4">
+        <v>45625.669690972223</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" s="5">
+        <v>20222960</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I198" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J198" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K198" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L198" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M198" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="8">
+        <v>45625.679595150461</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D199" s="9">
+        <v>20205267</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="F199" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="G199" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H199" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I199" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J199" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K199" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L199" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M199" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="4">
+        <v>45625.689081388889</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D200" s="5">
+        <v>20242430</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="G200" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H200" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I200" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J200" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K200" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L200" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M200" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="8">
+        <v>45625.708759699075</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D201" s="9">
+        <v>20241207</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="F201" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="G201" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H201" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I201" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J201" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K201" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L201" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M201" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="4">
+        <v>45625.732546666666</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D202" s="5">
+        <v>20202730</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I202" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J202" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K202" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L202" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M202" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="8">
+        <v>45625.734706319447</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D203" s="9">
+        <v>20231708</v>
+      </c>
+      <c r="E203" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="F203" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="G203" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H203" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I203" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J203" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K203" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L203" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M203" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="4">
+        <v>45625.775287951386</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D204" s="5">
+        <v>20205240</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="G204" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H204" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I204" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J204" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K204" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L204" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N204" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="8">
+        <v>45625.812813124998</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D205" s="9">
+        <v>20191226</v>
+      </c>
+      <c r="E205" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="F205" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="G205" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H205" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I205" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J205" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K205" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L205" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M205" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="20">
+        <v>45625.823810381946</v>
+      </c>
+      <c r="B206" s="21" t="s">
+        <v>654</v>
+      </c>
+      <c r="C206" s="21" t="s">
+        <v>655</v>
+      </c>
+      <c r="D206" s="21">
+        <v>20205167</v>
+      </c>
+      <c r="E206" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="F206" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="G206" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H206" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I206" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J206" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K206" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L206" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N206" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="8">
+        <v>45625.840810046298</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="D207" s="9">
+        <v>20193305</v>
+      </c>
+      <c r="E207" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="F207" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="G207" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H207" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I207" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J207" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K207" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L207" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N207" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="4">
+        <v>45625.848648229163</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="D208" s="5">
+        <v>20215144</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G208" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H208" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I208" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J208" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K208" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L208" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M208" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="8">
+        <v>45625.851769201385</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="D209" s="9">
+        <v>20225223</v>
+      </c>
+      <c r="E209" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F209" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="G209" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H209" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I209" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J209" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K209" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L209" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N209" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="4">
+        <v>45625.858796111112</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D210" s="5">
+        <v>20243959</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H210" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I210" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J210" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K210" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L210" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N210" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="8">
+        <v>45625.86403913195</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="D211" s="9">
+        <v>20205165</v>
+      </c>
+      <c r="E211" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="F211" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="G211" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H211" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I211" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J211" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K211" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L211" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N211" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="4">
+        <v>45625.878788287038</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D212" s="5">
+        <v>20243813</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H212" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I212" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J212" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K212" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L212" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N212" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="8">
+        <v>45625.889430011579</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="D213" s="9">
+        <v>20246420</v>
+      </c>
+      <c r="E213" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="F213" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="G213" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H213" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I213" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J213" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K213" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L213" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M213" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="4">
+        <v>45625.891179803242</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D214" s="5">
+        <v>20242624</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="G214" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H214" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I214" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J214" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K214" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L214" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N214" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="8">
+        <v>45625.897822060186</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="D215" s="9">
+        <v>20246932</v>
+      </c>
+      <c r="E215" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="F215" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="G215" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H215" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I215" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J215" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K215" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L215" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N215" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="4">
+        <v>45625.903557372687</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D216" s="5">
+        <v>20202911</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="G216" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H216" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I216" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J216" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K216" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L216" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M216" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="8">
+        <v>45625.904706388887</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D217" s="9">
+        <v>20242424</v>
+      </c>
+      <c r="E217" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="F217" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="G217" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H217" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I217" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J217" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K217" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L217" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M217" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="4">
+        <v>45625.908030543986</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D218" s="5">
+        <v>20233954</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="G218" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H218" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I218" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J218" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K218" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L218" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M218" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="8">
+        <v>45625.947679027777</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="D219" s="9">
+        <v>20222933</v>
+      </c>
+      <c r="E219" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="F219" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="G219" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H219" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I219" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J219" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K219" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L219" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N219" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="4">
+        <v>45625.97337443287</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D220" s="5">
+        <v>20246279</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="G220" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H220" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I220" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J220" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K220" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L220" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N220" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="8">
+        <v>45625.987603009256</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" s="9">
+        <v>20233031</v>
+      </c>
+      <c r="E221" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="F221" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="G221" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H221" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I221" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J221" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K221" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L221" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N221" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="4">
+        <v>45625.997889363425</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D222" s="5">
+        <v>20205226</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="F222" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="G222" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H222" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I222" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J222" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K222" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L222" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N222" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="8">
+        <v>45625.998485266202</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D223" s="9">
+        <v>20242118</v>
+      </c>
+      <c r="E223" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="F223" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="G223" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H223" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I223" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J223" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K223" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L223" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N223" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="4">
+        <v>45626.015373946764</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D224" s="5">
+        <v>20212840</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="G224" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H224" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I224" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J224" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K224" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L224" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M224" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="8">
+        <v>45626.0185203125</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D225" s="9">
+        <v>20243903</v>
+      </c>
+      <c r="E225" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="F225" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="G225" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H225" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I225" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J225" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K225" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L225" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N225" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="4">
+        <v>45626.040981053244</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D226" s="5">
+        <v>20242339</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="F226" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G226" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H226" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I226" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J226" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K226" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L226" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M226" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="16">
+        <v>45626.044588275465</v>
+      </c>
+      <c r="B227" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="C227" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="D227" s="17">
+        <v>20203352</v>
+      </c>
+      <c r="E227" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="F227" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="G227" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H227" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I227" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J227" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K227" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L227" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M227" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="4">
+        <v>45626.106123819445</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D228" s="5">
+        <v>20221005</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="F228" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="G228" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H228" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I228" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J228" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K228" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L228" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N228" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="8">
+        <v>45626.39962059028</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D229" s="9">
+        <v>20242751</v>
+      </c>
+      <c r="E229" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="F229" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="G229" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H229" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I229" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J229" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K229" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L229" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M229" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="4">
+        <v>45626.436803634264</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D230" s="5">
+        <v>20246238</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="F230" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="G230" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H230" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I230" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J230" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K230" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L230" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N230" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="8">
+        <v>45626.445642094906</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D231" s="9">
+        <v>20243214</v>
+      </c>
+      <c r="E231" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="F231" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="G231" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H231" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I231" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J231" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K231" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L231" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M231" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="4">
+        <v>45626.481316354169</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="D232" s="5">
+        <v>20235179</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="G232" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H232" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I232" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J232" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K232" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L232" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M232" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="8">
+        <v>45626.48139912037</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D233" s="9">
+        <v>20242122</v>
+      </c>
+      <c r="E233" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="F233" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="G233" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H233" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I233" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J233" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K233" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L233" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N233" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="4">
+        <v>45626.495581145835</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D234" s="5">
+        <v>20243826</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="F234" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="G234" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H234" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I234" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J234" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K234" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L234" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N234" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="8">
+        <v>45626.50156232639</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D235" s="9">
+        <v>20205124</v>
+      </c>
+      <c r="E235" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="F235" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="G235" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H235" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I235" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J235" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K235" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L235" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N235" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="4">
+        <v>45626.50831070602</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D236" s="5">
+        <v>20241081</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F236" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="G236" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H236" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I236" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J236" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K236" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L236" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N236" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="8">
+        <v>45626.528768472221</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D237" s="9">
+        <v>20242901</v>
+      </c>
+      <c r="E237" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="F237" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="G237" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H237" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I237" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J237" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K237" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L237" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M237" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="20">
+        <v>45626.578975115743</v>
+      </c>
+      <c r="B238" s="21" t="s">
+        <v>747</v>
+      </c>
+      <c r="C238" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D238" s="21">
+        <v>20202736</v>
+      </c>
+      <c r="E238" s="21" t="s">
+        <v>748</v>
+      </c>
+      <c r="F238" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="G238" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H238" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I238" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J238" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K238" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L238" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N238" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="8">
+        <v>45626.584110231481</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D239" s="9">
+        <v>20227093</v>
+      </c>
+      <c r="E239" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="F239" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G239" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H239" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I239" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J239" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K239" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L239" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M239" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="4">
+        <v>45626.64046116898</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="D240" s="5">
+        <v>20216731</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G240" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H240" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I240" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J240" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K240" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L240" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M240" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="8">
+        <v>45626.669244907403</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D241" s="9">
+        <v>20241517</v>
+      </c>
+      <c r="E241" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="F241" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G241" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H241" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I241" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J241" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K241" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L241" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M241" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="4">
+        <v>45626.679398287037</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D242" s="5">
+        <v>20246206</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="G242" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H242" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I242" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J242" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K242" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L242" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N242" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="8">
+        <v>45626.687119178241</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D243" s="9">
+        <v>20241044</v>
+      </c>
+      <c r="E243" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F243" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G243" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H243" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I243" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J243" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K243" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L243" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N243" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="4">
+        <v>45626.690488703709</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D244" s="5">
+        <v>20203423</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="F244" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G244" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H244" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I244" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J244" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K244" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L244" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M244" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="8">
+        <v>45626.699107048611</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D245" s="9">
+        <v>20241220</v>
+      </c>
+      <c r="E245" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="F245" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="G245" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H245" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I245" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J245" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K245" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L245" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M245" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="4">
+        <v>45626.699266458338</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D246" s="5">
+        <v>20212566</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="F246" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="G246" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H246" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I246" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J246" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K246" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L246" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N246" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="8">
+        <v>45626.712081331018</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D247" s="9">
+        <v>20242988</v>
+      </c>
+      <c r="E247" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="F247" s="10" t="s">
+        <v>772</v>
+      </c>
+      <c r="G247" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H247" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I247" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J247" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K247" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L247" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M247" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="4">
+        <v>45626.72932150463</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="D248" s="5">
+        <v>20196523</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="G248" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H248" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I248" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J248" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K248" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L248" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N248" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="8">
+        <v>45626.74489908565</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D249" s="9">
+        <v>20243949</v>
+      </c>
+      <c r="E249" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="F249" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="G249" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H249" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I249" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J249" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K249" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L249" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N249" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A250" s="4">
+        <v>45626.747294652778</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D250" s="5">
+        <v>20246204</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="F250" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H250" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I250" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J250" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K250" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L250" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M250" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="8">
+        <v>45626.760152974537</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D251" s="9">
+        <v>20245266</v>
+      </c>
+      <c r="E251" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="F251" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="G251" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H251" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I251" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J251" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K251" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L251" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N251" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A252" s="4">
+        <v>45626.762831215281</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D252" s="5">
+        <v>20243917</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="F252" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G252" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H252" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I252" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J252" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K252" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L252" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N252" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="8">
+        <v>45626.782034583332</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D253" s="9">
+        <v>20241088</v>
+      </c>
+      <c r="E253" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="F253" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="G253" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H253" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I253" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J253" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K253" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L253" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N253" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="4">
+        <v>45626.804364606476</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D254" s="5">
+        <v>20246264</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="F254" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G254" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H254" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I254" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J254" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K254" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L254" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M254" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="8">
+        <v>45626.818627719906</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D255" s="9">
+        <v>20243237</v>
+      </c>
+      <c r="E255" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="F255" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G255" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H255" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I255" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J255" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K255" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L255" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M255" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A256" s="4">
+        <v>45626.835657592594</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D256" s="5">
+        <v>20236615</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="G256" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H256" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I256" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J256" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K256" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L256" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M256" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="8">
+        <v>45626.840811122689</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="C257" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D257" s="9">
+        <v>20235248</v>
+      </c>
+      <c r="E257" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="F257" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G257" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H257" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I257" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J257" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K257" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L257" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M257" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="20">
+        <v>45626.84883101852</v>
+      </c>
+      <c r="B258" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="C258" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D258" s="21">
+        <v>20242332</v>
+      </c>
+      <c r="E258" s="21" t="s">
+        <v>799</v>
+      </c>
+      <c r="F258" s="22" t="s">
+        <v>800</v>
+      </c>
+      <c r="G258" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H258" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I258" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J258" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K258" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L258" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N258" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="8">
+        <v>45626.876482581021</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="D259" s="9">
+        <v>20246942</v>
+      </c>
+      <c r="E259" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="F259" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="G259" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H259" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I259" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J259" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K259" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L259" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M259" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="4">
+        <v>45626.883009027777</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D260" s="5">
+        <v>20232953</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="F260" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H260" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I260" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J260" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K260" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L260" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M260" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="8">
+        <v>45626.888275405094</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D261" s="9">
+        <v>20243806</v>
+      </c>
+      <c r="E261" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="F261" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="G261" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H261" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I261" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J261" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K261" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L261" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M261" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="4">
+        <v>45626.910891956017</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D262" s="5">
+        <v>20245218</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="F262" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="G262" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H262" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I262" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J262" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K262" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L262" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M262" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="8">
+        <v>45626.921682777778</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D263" s="9">
+        <v>20232527</v>
+      </c>
+      <c r="E263" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="F263" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="G263" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H263" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I263" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J263" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K263" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L263" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N263" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="4">
+        <v>45626.9228840625</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D264" s="5">
+        <v>20216716</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="F264" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="G264" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H264" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I264" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J264" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K264" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L264" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N264" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="8">
+        <v>45626.927953506944</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="D265" s="9">
+        <v>20217152</v>
+      </c>
+      <c r="E265" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="F265" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G265" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H265" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I265" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J265" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K265" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L265" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N265" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="4">
+        <v>45626.932861875001</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D266" s="5">
+        <v>20193813</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F266" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G266" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H266" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I266" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J266" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K266" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L266" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M266" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="8">
+        <v>45626.966102060185</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D267" s="9">
+        <v>20212801</v>
+      </c>
+      <c r="E267" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="F267" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G267" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H267" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I267" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J267" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K267" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L267" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N267" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="4">
+        <v>45626.974542187498</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D268" s="5">
+        <v>20201070</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="F268" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="G268" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H268" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I268" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J268" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K268" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L268" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N268" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="16">
+        <v>45626.976466747685</v>
+      </c>
+      <c r="B269" s="17" t="s">
+        <v>820</v>
+      </c>
+      <c r="C269" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D269" s="17">
+        <v>20232726</v>
+      </c>
+      <c r="E269" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="F269" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="G269" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H269" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I269" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J269" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K269" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L269" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M269" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="4">
+        <v>45627.003210925926</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D270" s="5">
+        <v>20242336</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="F270" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="G270" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H270" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I270" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J270" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K270" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L270" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M270" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="8">
+        <v>45627.015308518516</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D271" s="9">
+        <v>20212551</v>
+      </c>
+      <c r="E271" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="F271" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="G271" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H271" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I271" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J271" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K271" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L271" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N271" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="4">
+        <v>45627.018536261574</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D272" s="5">
+        <v>20243712</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="F272" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="G272" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H272" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I272" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J272" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K272" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L272" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M272" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="8">
+        <v>45627.021545138894</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D273" s="9">
+        <v>20242323</v>
+      </c>
+      <c r="E273" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="F273" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G273" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H273" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I273" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J273" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K273" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L273" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M273" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A274" s="4">
+        <v>45627.02427923611</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D274" s="5">
+        <v>20243612</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="F274" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="G274" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H274" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I274" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J274" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K274" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L274" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M274" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A275" s="8">
+        <v>45627.030026655091</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="D275" s="9">
+        <v>20243606</v>
+      </c>
+      <c r="E275" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="F275" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="G275" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H275" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I275" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J275" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K275" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L275" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M275" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A276" s="4">
+        <v>45627.03383601852</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D276" s="5">
+        <v>20246782</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="F276" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="G276" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H276" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I276" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J276" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K276" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L276" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M276" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A277" s="8">
+        <v>45627.038703287035</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="C277" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D277" s="9">
+        <v>20242340</v>
+      </c>
+      <c r="E277" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="F277" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="G277" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H277" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I277" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J277" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K277" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L277" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M277" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A278" s="4">
+        <v>45627.053851921301</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D278" s="5">
+        <v>20241515</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F278" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="G278" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H278" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I278" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J278" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K278" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L278" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N278" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A279" s="8">
+        <v>45627.065530520835</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D279" s="9">
+        <v>20203211</v>
+      </c>
+      <c r="E279" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="F279" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="G279" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H279" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I279" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J279" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K279" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L279" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M279" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A280" s="4">
+        <v>45627.072440555552</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" s="5">
+        <v>20222902</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="F280" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="G280" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H280" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I280" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J280" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K280" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L280" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N280" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A281" s="8">
+        <v>45627.075026921295</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D281" s="9">
+        <v>20243702</v>
+      </c>
+      <c r="E281" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="F281" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="G281" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H281" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I281" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J281" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K281" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L281" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N281" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A282" s="4">
+        <v>45627.112208125</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" s="5">
+        <v>20242973</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="F282" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="G282" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H282" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I282" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J282" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K282" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L282" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N282" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A283" s="8">
+        <v>45627.136647326392</v>
+      </c>
+      <c r="B283" s="9" t="s">
+        <v>857</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D283" s="9">
+        <v>20205195</v>
+      </c>
+      <c r="E283" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="F283" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="G283" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H283" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I283" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J283" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K283" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L283" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N283" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A284" s="4">
+        <v>45627.137640949077</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D284" s="5">
+        <v>20212555</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="F284" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="G284" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H284" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I284" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J284" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K284" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L284" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N284" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A285" s="8">
+        <v>45627.148077766207</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="C285" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D285" s="9">
+        <v>20202319</v>
+      </c>
+      <c r="E285" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="F285" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="G285" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H285" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I285" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J285" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K285" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L285" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N285" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A286" s="4">
+        <v>45627.317460555554</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D286" s="5">
+        <v>20227143</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="F286" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="G286" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H286" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I286" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J286" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K286" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L286" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M286" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A287" s="8">
+        <v>45627.358726886574</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="C287" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D287" s="9">
+        <v>20217015</v>
+      </c>
+      <c r="E287" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="F287" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G287" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H287" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I287" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J287" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K287" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L287" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M287" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A288" s="4">
+        <v>45627.36448355324</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="D288" s="5">
+        <v>20213035</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="F288" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="G288" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H288" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I288" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J288" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K288" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L288" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N288" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A289" s="8">
+        <v>45627.374914513886</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="C289" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" s="9">
+        <v>20192901</v>
+      </c>
+      <c r="E289" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="F289" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="G289" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H289" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I289" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J289" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K289" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L289" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M289" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A290" s="4">
+        <v>45627.396304097223</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D290" s="5">
+        <v>20246271</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="F290" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="G290" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H290" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I290" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J290" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K290" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L290" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N290" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A291" s="16">
+        <v>45627.413420381941</v>
+      </c>
+      <c r="B291" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="C291" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D291" s="17">
+        <v>20246233</v>
+      </c>
+      <c r="E291" s="17" t="s">
+        <v>876</v>
+      </c>
+      <c r="F291" s="18" t="s">
+        <v>877</v>
+      </c>
+      <c r="G291" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H291" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I291" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J291" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K291" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L291" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M291" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A292" s="4">
+        <v>45627.483401261576</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D292" s="5">
+        <v>20242707</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="F292" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G292" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H292" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I292" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J292" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K292" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L292" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M292" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="8">
+        <v>45627.544798310184</v>
+      </c>
+      <c r="B293" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="C293" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D293" s="9">
+        <v>20246628</v>
+      </c>
+      <c r="E293" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="F293" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G293" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H293" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I293" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J293" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K293" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L293" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N293" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A294" s="4">
+        <v>45627.54589415509</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D294" s="5">
+        <v>20245190</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="F294" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="G294" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H294" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I294" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J294" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K294" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L294" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M294" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="8">
+        <v>45627.548471527778</v>
+      </c>
+      <c r="B295" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="C295" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D295" s="9">
+        <v>20233509</v>
+      </c>
+      <c r="E295" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="F295" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G295" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H295" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I295" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J295" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K295" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L295" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N295" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A296" s="4">
+        <v>45627.550270532403</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D296" s="5">
+        <v>20227078</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="F296" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="G296" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H296" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I296" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J296" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K296" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L296" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M296" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="8">
+        <v>45627.551318298611</v>
+      </c>
+      <c r="B297" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="C297" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D297" s="9">
+        <v>20213533</v>
+      </c>
+      <c r="E297" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="F297" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="G297" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H297" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I297" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J297" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K297" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L297" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N297" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A298" s="4">
+        <v>45627.569020590279</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D298" s="5">
+        <v>20243955</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="F298" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="G298" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H298" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I298" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J298" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K298" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L298" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N298" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A299" s="8">
+        <v>45627.574330868054</v>
+      </c>
+      <c r="B299" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="C299" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="D299" s="9">
+        <v>20236739</v>
+      </c>
+      <c r="E299" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="F299" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="G299" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H299" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I299" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J299" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K299" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L299" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M299" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A300" s="4">
+        <v>45627.621037141202</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D300" s="5">
+        <v>20241605</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F300" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="G300" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H300" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I300" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J300" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K300" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L300" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N300" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A301" s="8">
+        <v>45627.623489108795</v>
+      </c>
+      <c r="B301" s="9" t="s">
+        <v>898</v>
+      </c>
+      <c r="C301" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D301" s="9">
+        <v>20205188</v>
+      </c>
+      <c r="E301" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="F301" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G301" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H301" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I301" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J301" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K301" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L301" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M301" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A302" s="4">
+        <v>45627.632375972222</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D302" s="5">
+        <v>20214104</v>
+      </c>
+      <c r="E302" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="F302" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="G302" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H302" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I302" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J302" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K302" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L302" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N302" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A303" s="8">
+        <v>45627.644146342587</v>
+      </c>
+      <c r="B303" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="C303" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="D303" s="9">
+        <v>20236121</v>
+      </c>
+      <c r="E303" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="F303" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="G303" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H303" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I303" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J303" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K303" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L303" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M303" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A304" s="4">
+        <v>45627.680715231487</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D304" s="5">
+        <v>20242101</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="F304" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G304" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H304" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I304" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J304" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K304" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L304" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N304" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A305" s="8">
+        <v>45627.680716076386</v>
+      </c>
+      <c r="B305" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="C305" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D305" s="9">
+        <v>20242618</v>
+      </c>
+      <c r="E305" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="F305" s="10" t="s">
+        <v>910</v>
+      </c>
+      <c r="G305" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H305" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I305" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J305" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K305" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L305" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M305" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A306" s="4">
+        <v>45627.682697581018</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D306" s="5">
+        <v>20242128</v>
+      </c>
+      <c r="E306" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="F306" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G306" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H306" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I306" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J306" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K306" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L306" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N306" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A307" s="8">
+        <v>45627.685848298614</v>
+      </c>
+      <c r="B307" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="C307" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D307" s="9">
+        <v>20241095</v>
+      </c>
+      <c r="E307" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="F307" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G307" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H307" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I307" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J307" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K307" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L307" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N307" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A308" s="4">
+        <v>45627.69352645833</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="D308" s="5">
+        <v>20195158</v>
+      </c>
+      <c r="E308" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="F308" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="G308" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H308" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I308" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J308" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K308" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L308" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M308" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A309" s="8">
+        <v>45627.70356094907</v>
+      </c>
+      <c r="B309" s="9" t="s">
+        <v>918</v>
+      </c>
+      <c r="C309" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D309" s="9">
+        <v>20243815</v>
+      </c>
+      <c r="E309" s="9" t="s">
+        <v>919</v>
+      </c>
+      <c r="F309" s="10" t="s">
+        <v>920</v>
+      </c>
+      <c r="G309" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H309" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I309" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J309" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K309" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L309" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M309" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A310" s="4">
+        <v>45627.710722835647</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D310" s="5">
+        <v>20231622</v>
+      </c>
+      <c r="E310" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="F310" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="G310" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H310" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I310" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J310" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K310" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L310" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M310" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A311" s="8">
+        <v>45627.711031747684</v>
+      </c>
+      <c r="B311" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="C311" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="D311" s="9">
+        <v>20215239</v>
+      </c>
+      <c r="E311" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="F311" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="G311" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H311" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I311" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J311" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K311" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L311" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N311" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A312" s="4">
+        <v>45627.721001180558</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D312" s="5">
+        <v>20183006</v>
+      </c>
+      <c r="E312" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="F312" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="G312" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H312" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I312" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J312" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K312" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L312" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N312" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A313" s="8">
+        <v>45627.722019525463</v>
+      </c>
+      <c r="B313" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="C313" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D313" s="9">
+        <v>20224123</v>
+      </c>
+      <c r="E313" s="9" t="s">
+        <v>930</v>
+      </c>
+      <c r="F313" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="G313" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H313" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I313" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J313" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K313" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L313" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N313" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A314" s="4">
+        <v>45627.726753344905</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="D314" s="5">
+        <v>20242508</v>
+      </c>
+      <c r="E314" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="F314" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="G314" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H314" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I314" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J314" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K314" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L314" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N314" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A315" s="8">
+        <v>45627.728347418983</v>
+      </c>
+      <c r="B315" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="C315" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="D315" s="9">
+        <v>20192986</v>
+      </c>
+      <c r="E315" s="9" t="s">
+        <v>935</v>
+      </c>
+      <c r="F315" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="G315" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H315" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I315" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J315" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K315" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L315" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N315" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A316" s="4">
+        <v>45627.734067187499</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D316" s="5">
+        <v>20207089</v>
+      </c>
+      <c r="E316" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="F316" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="G316" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H316" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I316" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J316" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K316" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L316" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M316" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A317" s="8">
+        <v>45627.740691886574</v>
+      </c>
+      <c r="B317" s="9" t="s">
+        <v>938</v>
+      </c>
+      <c r="C317" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D317" s="9">
+        <v>20242960</v>
+      </c>
+      <c r="E317" s="9" t="s">
+        <v>939</v>
+      </c>
+      <c r="F317" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="G317" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H317" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I317" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J317" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K317" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L317" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N317" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A318" s="4">
+        <v>45627.742886724533</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D318" s="5">
+        <v>20244110</v>
+      </c>
+      <c r="E318" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="F318" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="G318" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H318" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I318" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J318" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K318" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L318" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M318" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A319" s="8">
+        <v>45627.746298344908</v>
+      </c>
+      <c r="B319" s="9" t="s">
+        <v>943</v>
+      </c>
+      <c r="C319" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D319" s="9">
+        <v>20212927</v>
+      </c>
+      <c r="E319" s="9" t="s">
+        <v>944</v>
+      </c>
+      <c r="F319" s="10" t="s">
+        <v>945</v>
+      </c>
+      <c r="G319" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H319" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I319" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J319" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K319" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L319" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M319" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A320" s="4">
+        <v>45627.747097210653</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D320" s="5">
+        <v>20242363</v>
+      </c>
+      <c r="E320" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="F320" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="G320" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H320" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I320" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J320" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K320" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L320" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M320" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A321" s="8">
+        <v>45627.761843275468</v>
+      </c>
+      <c r="B321" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="C321" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D321" s="9">
+        <v>20202834</v>
+      </c>
+      <c r="E321" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="F321" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="G321" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H321" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I321" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J321" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K321" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L321" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M321" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A322" s="4">
+        <v>45627.767852511577</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D322" s="5">
+        <v>20217173</v>
+      </c>
+      <c r="E322" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="F322" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="G322" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H322" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I322" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J322" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K322" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L322" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N322" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A323" s="8">
+        <v>45627.776206782408</v>
+      </c>
+      <c r="B323" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="C323" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D323" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="E323" s="9" t="s">
+        <v>957</v>
+      </c>
+      <c r="F323" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="G323" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H323" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I323" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J323" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K323" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L323" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N323" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A324" s="4">
+        <v>45627.777696400459</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D324" s="5">
+        <v>20232637</v>
+      </c>
+      <c r="E324" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="F324" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="G324" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H324" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I324" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J324" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K324" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L324" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M324" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A325" s="8">
+        <v>45627.778118634262</v>
+      </c>
+      <c r="B325" s="9" t="s">
+        <v>962</v>
+      </c>
+      <c r="C325" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D325" s="9">
+        <v>20231623</v>
+      </c>
+      <c r="E325" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="F325" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="G325" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H325" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I325" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J325" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K325" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L325" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N325" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A326" s="20">
+        <v>45627.784376539348</v>
+      </c>
+      <c r="B326" s="21" t="s">
+        <v>964</v>
+      </c>
+      <c r="C326" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D326" s="21">
+        <v>20191604</v>
+      </c>
+      <c r="E326" s="21" t="s">
+        <v>965</v>
+      </c>
+      <c r="F326" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="G326" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H326" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I326" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J326" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K326" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L326" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M326" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A327" s="8">
+        <v>45627.800965601855</v>
+      </c>
+      <c r="B327" s="9" t="s">
+        <v>971</v>
+      </c>
+      <c r="C327" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D327" s="9">
+        <v>20241236</v>
+      </c>
+      <c r="E327" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="F327" s="10" t="s">
+        <v>973</v>
+      </c>
+      <c r="G327" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H327" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I327" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J327" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K327" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L327" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N327" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A328" s="4">
+        <v>45627.801981446755</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D328" s="5">
+        <v>20244130</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="F328" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="G328" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H328" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I328" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J328" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K328" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L328" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M328" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A329" s="8">
+        <v>45627.803013055556</v>
+      </c>
+      <c r="B329" s="9" t="s">
+        <v>976</v>
+      </c>
+      <c r="C329" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D329" s="9">
+        <v>20202641</v>
+      </c>
+      <c r="E329" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="F329" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="G329" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H329" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I329" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J329" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K329" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L329" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M329" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A330" s="4">
+        <v>45627.804742604167</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="D330" s="5">
+        <v>20244150</v>
+      </c>
+      <c r="E330" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="F330" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G330" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H330" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I330" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J330" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K330" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L330" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N330" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A331" s="8">
+        <v>45627.805870324075</v>
+      </c>
+      <c r="B331" s="9" t="s">
+        <v>981</v>
+      </c>
+      <c r="C331" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D331" s="9">
+        <v>20242515</v>
+      </c>
+      <c r="E331" s="9" t="s">
+        <v>982</v>
+      </c>
+      <c r="F331" s="10" t="s">
+        <v>983</v>
+      </c>
+      <c r="G331" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H331" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I331" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J331" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K331" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L331" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M331" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A332" s="4">
+        <v>45627.810207835646</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="D332" s="5">
+        <v>20243259</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="F332" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G332" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H332" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I332" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J332" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K332" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L332" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N332" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A333" s="8">
+        <v>45627.81251019676</v>
+      </c>
+      <c r="B333" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C333" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D333" s="9">
+        <v>20246633</v>
+      </c>
+      <c r="E333" s="9" t="s">
+        <v>988</v>
+      </c>
+      <c r="F333" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G333" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H333" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I333" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J333" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K333" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L333" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M333" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A334" s="4">
+        <v>45627.817960150467</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D334" s="5">
+        <v>20226602</v>
+      </c>
+      <c r="E334" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="F334" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="G334" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H334" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I334" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J334" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K334" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L334" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M334" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A335" s="8">
+        <v>45627.822705474537</v>
+      </c>
+      <c r="B335" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="C335" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D335" s="9">
+        <v>20232938</v>
+      </c>
+      <c r="E335" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="F335" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="G335" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H335" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I335" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J335" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K335" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L335" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N335" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A336" s="4">
+        <v>45627.825188136572</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D336" s="5">
+        <v>20242503</v>
+      </c>
+      <c r="E336" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="F336" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="G336" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H336" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I336" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J336" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K336" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L336" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M336" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A337" s="8">
+        <v>45627.839652071758</v>
+      </c>
+      <c r="B337" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="C337" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D337" s="9">
+        <v>20232311</v>
+      </c>
+      <c r="E337" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="F337" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="G337" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H337" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I337" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J337" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K337" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L337" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M337" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A338" s="4">
+        <v>45627.840465555557</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D338" s="5">
+        <v>20243741</v>
+      </c>
+      <c r="E338" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="F338" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="G338" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H338" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I338" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J338" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K338" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L338" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M338" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A339" s="8">
+        <v>45627.841459687501</v>
+      </c>
+      <c r="B339" s="9" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C339" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D339" s="9">
+        <v>20192737</v>
+      </c>
+      <c r="E339" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F339" s="10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G339" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H339" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I339" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J339" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K339" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L339" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M339" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A340" s="4">
+        <v>45627.845267905097</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D340" s="5">
+        <v>20172719</v>
+      </c>
+      <c r="E340" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F340" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="G340" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H340" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I340" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J340" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K340" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L340" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N340" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A341" s="8">
+        <v>45627.862342604167</v>
+      </c>
+      <c r="B341" s="9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C341" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D341" s="9">
+        <v>20244123</v>
+      </c>
+      <c r="E341" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F341" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G341" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H341" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I341" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J341" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K341" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L341" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M341" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A342" s="4">
+        <v>45627.862618634259</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D342" s="5">
+        <v>20243627</v>
+      </c>
+      <c r="E342" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F342" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G342" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H342" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I342" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J342" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K342" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L342" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N342" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A343" s="8">
+        <v>45627.865910706023</v>
+      </c>
+      <c r="B343" s="9" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C343" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D343" s="9">
+        <v>20211625</v>
+      </c>
+      <c r="E343" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F343" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="G343" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H343" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I343" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J343" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K343" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L343" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N343" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A344" s="20">
+        <v>45627.871066226857</v>
+      </c>
+      <c r="B344" s="21" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C344" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D344" s="21">
+        <v>20242732</v>
+      </c>
+      <c r="E344" s="21" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F344" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G344" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H344" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I344" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J344" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K344" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L344" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N344" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A345" s="8">
+        <v>45627.874353148145</v>
+      </c>
+      <c r="B345" s="9" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C345" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D345" s="9">
+        <v>20191084</v>
+      </c>
+      <c r="E345" s="9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F345" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G345" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H345" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I345" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J345" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K345" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L345" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M345" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A346" s="4">
+        <v>45627.878400717593</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D346" s="5">
+        <v>20192634</v>
+      </c>
+      <c r="E346" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F346" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="G346" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H346" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I346" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J346" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K346" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L346" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M346" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A347" s="8">
+        <v>45627.882808877315</v>
+      </c>
+      <c r="B347" s="9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C347" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D347" s="9">
+        <v>20227022</v>
+      </c>
+      <c r="E347" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F347" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G347" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H347" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I347" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J347" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K347" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L347" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M347" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A348" s="4">
+        <v>45627.898590879631</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D348" s="5">
+        <v>20202994</v>
+      </c>
+      <c r="E348" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F348" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G348" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H348" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I348" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J348" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K348" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L348" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M348" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A349" s="8">
+        <v>45627.899611446759</v>
+      </c>
+      <c r="B349" s="9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C349" s="9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D349" s="9">
+        <v>20203026</v>
+      </c>
+      <c r="E349" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F349" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="G349" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H349" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I349" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J349" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K349" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L349" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N349" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A350" s="4">
+        <v>45627.90085100694</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D350" s="5">
+        <v>20241728</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F350" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G350" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H350" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I350" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J350" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K350" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L350" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M350" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A351" s="8">
+        <v>45627.901012523143</v>
+      </c>
+      <c r="B351" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C351" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="D351" s="9">
+        <v>20243314</v>
+      </c>
+      <c r="E351" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F351" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G351" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H351" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I351" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J351" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K351" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L351" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M351" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A352" s="4">
+        <v>45627.90589613426</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D352" s="5">
+        <v>20213224</v>
+      </c>
+      <c r="E352" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F352" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="G352" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H352" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I352" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J352" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K352" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L352" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M352" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A353" s="8">
+        <v>45627.907709884261</v>
+      </c>
+      <c r="B353" s="9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C353" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D353" s="9">
+        <v>20242138</v>
+      </c>
+      <c r="E353" s="9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F353" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G353" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H353" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I353" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J353" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K353" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L353" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M353" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A354" s="4">
+        <v>45627.908902349533</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D354" s="5">
+        <v>20192616</v>
+      </c>
+      <c r="E354" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F354" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G354" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H354" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I354" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J354" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K354" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L354" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M354" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A355" s="8">
+        <v>45627.917048090283</v>
+      </c>
+      <c r="B355" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C355" s="9">
+        <v>20231602</v>
+      </c>
+      <c r="D355" s="9">
+        <v>20231602</v>
+      </c>
+      <c r="E355" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F355" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="G355" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H355" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I355" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J355" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K355" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L355" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N355" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A356" s="4">
+        <v>45627.919457152777</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="D356" s="5">
+        <v>20242982</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F356" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G356" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H356" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I356" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J356" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K356" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L356" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N356" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A357" s="8">
+        <v>45627.93675739583</v>
+      </c>
+      <c r="B357" s="9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C357" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D357" s="9">
+        <v>20243001</v>
+      </c>
+      <c r="E357" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F357" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G357" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H357" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I357" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J357" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K357" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L357" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N357" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A358" s="20">
+        <v>45627.961062395829</v>
+      </c>
+      <c r="B358" s="21" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C358" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D358" s="21">
+        <v>20203006</v>
+      </c>
+      <c r="E358" s="21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F358" s="22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G358" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H358" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I358" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J358" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K358" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L358" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N358" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A359" s="8">
+        <v>45627.976706782407</v>
+      </c>
+      <c r="B359" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C359" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D359" s="9">
+        <v>20245196</v>
+      </c>
+      <c r="E359" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F359" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G359" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H359" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I359" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J359" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K359" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L359" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N359" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A360" s="4">
+        <v>45627.978333090279</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="D360" s="5">
+        <v>20203302</v>
+      </c>
+      <c r="E360" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="F360" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G360" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H360" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I360" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J360" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K360" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L360" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N360" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A361" s="8">
+        <v>45627.978730798612</v>
+      </c>
+      <c r="B361" s="9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C361" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="D361" s="9">
+        <v>20213241</v>
+      </c>
+      <c r="E361" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F361" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G361" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H361" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I361" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J361" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K361" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L361" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M361" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A362" s="4">
+        <v>45627.983099872683</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D362" s="5">
+        <v>20246293</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F362" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="G362" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H362" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I362" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J362" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K362" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L362" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N362" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A363" s="8">
+        <v>45627.986690902777</v>
+      </c>
+      <c r="B363" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C363" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D363" s="9">
+        <v>20202570</v>
+      </c>
+      <c r="E363" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F363" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G363" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H363" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I363" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J363" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K363" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L363" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N363" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A364" s="4">
+        <v>45627.999329432874</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D364" s="5">
+        <v>20242342</v>
+      </c>
+      <c r="E364" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F364" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G364" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H364" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I364" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J364" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K364" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L364" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M364" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A365" s="8">
+        <v>45628.002824664349</v>
+      </c>
+      <c r="B365" s="9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C365" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D365" s="9">
+        <v>20181628</v>
+      </c>
+      <c r="E365" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F365" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="G365" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H365" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I365" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J365" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K365" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L365" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N365" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A366" s="4">
+        <v>45628.004716527779</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D366" s="5">
+        <v>20227111</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F366" s="6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G366" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H366" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I366" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J366" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K366" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L366" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M366" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A367" s="8">
+        <v>45628.022585474537</v>
+      </c>
+      <c r="B367" s="9" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C367" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="D367" s="9">
+        <v>20246752</v>
+      </c>
+      <c r="E367" s="9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F367" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="G367" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H367" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I367" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J367" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K367" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L367" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N367" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A368" s="20">
+        <v>45628.068786770833</v>
+      </c>
+      <c r="B368" s="21" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C368" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D368" s="21">
+        <v>20217178</v>
+      </c>
+      <c r="E368" s="21" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F368" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="G368" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H368" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I368" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J368" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K368" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L368" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M368" s="25"/>
+      <c r="N368" s="23" t="s">
         <v>35</v>
       </c>
     </row>

--- a/R/data/quiz241125.xlsx
+++ b/R/data/quiz241125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A9C0EE-0DF0-9443-9486-BF05A3B175B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C105BB1-124C-D24E-A0C3-DDB3A2CE6FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47040" yWindow="1460" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4051" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4249" uniqueCount="1121">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3264,6 +3264,148 @@
   </si>
   <si>
     <t>08/15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kangdmscks@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">융합과학수사학과 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">강은찬 </t>
+  </si>
+  <si>
+    <t>09/03</t>
+  </si>
+  <si>
+    <t>seomina0503@naver.com</t>
+  </si>
+  <si>
+    <t>서민아</t>
+  </si>
+  <si>
+    <t>05/03</t>
+  </si>
+  <si>
+    <t>gusquddus20@naver.com</t>
+  </si>
+  <si>
+    <t>현병연</t>
+  </si>
+  <si>
+    <t>dbfrhr02@naver.com</t>
+  </si>
+  <si>
+    <t>심건휘</t>
+  </si>
+  <si>
+    <t>eojeongmin146@gmail.com</t>
+  </si>
+  <si>
+    <t>어정민</t>
+  </si>
+  <si>
+    <t>ghkdxo2003@gmail.com</t>
+  </si>
+  <si>
+    <t>황이준</t>
+  </si>
+  <si>
+    <t>06/21</t>
+  </si>
+  <si>
+    <t>cgb01045647472@gmail.com</t>
+  </si>
+  <si>
+    <t>최기백</t>
+  </si>
+  <si>
+    <t>jsh050906@naver.com</t>
+  </si>
+  <si>
+    <t>정송희</t>
+  </si>
+  <si>
+    <t>stacy4036@naver.com</t>
+  </si>
+  <si>
+    <t>사회복지과</t>
+  </si>
+  <si>
+    <t>최하은</t>
+  </si>
+  <si>
+    <t>kjinju0518@naver.com</t>
+  </si>
+  <si>
+    <t>김진주</t>
+  </si>
+  <si>
+    <t>05/18</t>
+  </si>
+  <si>
+    <t>dw060419@naver.com</t>
+  </si>
+  <si>
+    <t>김도원</t>
+  </si>
+  <si>
+    <t>04/19</t>
+  </si>
+  <si>
+    <t>lovearamis3@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터 테크</t>
+  </si>
+  <si>
+    <t>정현우</t>
+  </si>
+  <si>
+    <t>kangyein0810@gmail.com</t>
+  </si>
+  <si>
+    <t>강예인</t>
+  </si>
+  <si>
+    <t>08/10</t>
+  </si>
+  <si>
+    <t>20235263@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>스마트IoT</t>
+  </si>
+  <si>
+    <t>woosm050530@gmail.com</t>
+  </si>
+  <si>
+    <t>우수민</t>
+  </si>
+  <si>
+    <t>xormr1505@naver.com</t>
+  </si>
+  <si>
+    <t>박찬원</t>
+  </si>
+  <si>
+    <t>chanwoo0807@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이 스쿨</t>
+  </si>
+  <si>
+    <t>김찬우</t>
+  </si>
+  <si>
+    <t>p20236727@gmail.com</t>
+  </si>
+  <si>
+    <t>박진서</t>
+  </si>
+  <si>
+    <t>03/04</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3705,7 +3847,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N368" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N386" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -3932,11 +4074,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N368"/>
+  <dimension ref="A1:N386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F372" sqref="F372"/>
+      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F389" sqref="F389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19047,10 +19189,748 @@
       <c r="L368" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="M368" s="25"/>
       <c r="N368" s="23" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="369" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A369" s="8">
+        <v>45628.461994803241</v>
+      </c>
+      <c r="B369" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C369" s="9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D369" s="9">
+        <v>20246904</v>
+      </c>
+      <c r="E369" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F369" s="10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G369" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H369" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I369" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J369" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K369" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L369" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M369" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A370" s="4">
+        <v>45628.485364305554</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D370" s="5">
+        <v>20246244</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F370" s="6" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G370" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H370" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I370" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J370" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K370" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L370" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M370" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A371" s="8">
+        <v>45628.547806562499</v>
+      </c>
+      <c r="B371" s="9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C371" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D371" s="9">
+        <v>20227106</v>
+      </c>
+      <c r="E371" s="9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F371" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G371" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H371" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I371" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J371" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K371" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L371" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N371" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A372" s="4">
+        <v>45628.588250694447</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D372" s="5">
+        <v>20212971</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F372" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G372" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H372" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I372" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J372" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K372" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L372" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M372" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A373" s="8">
+        <v>45628.616058819447</v>
+      </c>
+      <c r="B373" s="9" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C373" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D373" s="9">
+        <v>20242725</v>
+      </c>
+      <c r="E373" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F373" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="G373" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H373" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I373" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J373" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K373" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L373" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M373" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A374" s="4">
+        <v>45628.633397893514</v>
+      </c>
+      <c r="B374" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D374" s="5">
+        <v>20231733</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F374" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G374" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H374" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I374" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J374" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K374" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L374" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N374" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A375" s="8">
+        <v>45628.683249409718</v>
+      </c>
+      <c r="B375" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C375" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D375" s="9">
+        <v>20193003</v>
+      </c>
+      <c r="E375" s="9" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F375" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="G375" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H375" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I375" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J375" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K375" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L375" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N375" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A376" s="20">
+        <v>45628.771830844911</v>
+      </c>
+      <c r="B376" s="21" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C376" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D376" s="21">
+        <v>20243032</v>
+      </c>
+      <c r="E376" s="21" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F376" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G376" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H376" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I376" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J376" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K376" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L376" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N376" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A377" s="8">
+        <v>45628.843314837963</v>
+      </c>
+      <c r="B377" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C377" s="9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D377" s="9">
+        <v>20227034</v>
+      </c>
+      <c r="E377" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F377" s="10" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G377" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H377" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I377" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J377" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K377" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L377" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N377" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A378" s="4">
+        <v>45628.86190207176</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D378" s="5">
+        <v>20232937</v>
+      </c>
+      <c r="E378" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F378" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G378" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H378" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I378" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J378" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K378" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L378" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N378" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A379" s="8">
+        <v>45628.869075775467</v>
+      </c>
+      <c r="B379" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C379" s="9">
+        <v>20241509</v>
+      </c>
+      <c r="D379" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E379" s="9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F379" s="10" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G379" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H379" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I379" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J379" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K379" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L379" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N379" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A380" s="4">
+        <v>45628.870655451392</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D380" s="5">
+        <v>20203251</v>
+      </c>
+      <c r="E380" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F380" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G380" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H380" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I380" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J380" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K380" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L380" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M380" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A381" s="8">
+        <v>45628.956518946754</v>
+      </c>
+      <c r="B381" s="9" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C381" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D381" s="9">
+        <v>20246603</v>
+      </c>
+      <c r="E381" s="9" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F381" s="10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G381" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H381" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I381" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J381" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K381" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L381" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M381" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A382" s="4">
+        <v>45628.982676423606</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D382" s="5">
+        <v>20235263</v>
+      </c>
+      <c r="E382" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="F382" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="G382" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H382" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I382" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J382" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K382" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L382" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M382" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A383" s="8">
+        <v>45628.987786770835</v>
+      </c>
+      <c r="B383" s="9" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C383" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D383" s="9">
+        <v>20243630</v>
+      </c>
+      <c r="E383" s="9" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F383" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="G383" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H383" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I383" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J383" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K383" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L383" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N383" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A384" s="4">
+        <v>45629.379633414355</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D384" s="5">
+        <v>20205176</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F384" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G384" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H384" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I384" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J384" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K384" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L384" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M384" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A385" s="8">
+        <v>45629.464658969911</v>
+      </c>
+      <c r="B385" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C385" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D385" s="9">
+        <v>20223316</v>
+      </c>
+      <c r="E385" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F385" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G385" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H385" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I385" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J385" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K385" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L385" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M385" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A386" s="20">
+        <v>45629.514912384257</v>
+      </c>
+      <c r="B386" s="21" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C386" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="D386" s="21">
+        <v>20236727</v>
+      </c>
+      <c r="E386" s="21" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F386" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="G386" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H386" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I386" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J386" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K386" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L386" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M386" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N386" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/R/data/quiz241125.xlsx
+++ b/R/data/quiz241125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C105BB1-124C-D24E-A0C3-DDB3A2CE6FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B504B3EB-07AC-2145-A7F8-A1A6001F4A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47040" yWindow="1460" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4249" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4359" uniqueCount="1142">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3407,6 +3407,69 @@
   <si>
     <t>03/04</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>youlove6767@naver.com</t>
+  </si>
+  <si>
+    <t>임소이</t>
+  </si>
+  <si>
+    <t>r67890@naver.com</t>
+  </si>
+  <si>
+    <t>이규형</t>
+  </si>
+  <si>
+    <t>kimdongx0813@gmail.com</t>
+  </si>
+  <si>
+    <t>김동현</t>
+  </si>
+  <si>
+    <t>dbsduwls691@naver.com</t>
+  </si>
+  <si>
+    <t>윤여진</t>
+  </si>
+  <si>
+    <t>sk2000tyr@naver.com</t>
+  </si>
+  <si>
+    <t>이지한</t>
+  </si>
+  <si>
+    <t>eseses0827@naver.com</t>
+  </si>
+  <si>
+    <t>강은서</t>
+  </si>
+  <si>
+    <t>jin050828@gmail.com</t>
+  </si>
+  <si>
+    <t>김진영</t>
+  </si>
+  <si>
+    <t>08/28</t>
+  </si>
+  <si>
+    <t>whdudgus1013@gmail.com</t>
+  </si>
+  <si>
+    <t>조영현</t>
+  </si>
+  <si>
+    <t>ilylive999@gmail.com</t>
+  </si>
+  <si>
+    <t>이가현</t>
+  </si>
+  <si>
+    <t>dltmdwo0301@naver.com</t>
+  </si>
+  <si>
+    <t>이승재</t>
   </si>
 </sst>
 </file>
@@ -3847,7 +3910,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N386" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N396" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -4074,11 +4137,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N386"/>
+  <dimension ref="A1:N396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F389" sqref="F389"/>
+      <selection pane="bottomLeft" activeCell="D399" sqref="D399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19930,7 +19993,417 @@
       <c r="M386" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="N386" s="25"/>
+    </row>
+    <row r="387" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A387" s="8">
+        <v>45629.579242997686</v>
+      </c>
+      <c r="B387" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C387" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D387" s="9">
+        <v>20232745</v>
+      </c>
+      <c r="E387" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F387" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G387" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H387" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I387" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J387" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K387" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L387" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N387" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A388" s="4">
+        <v>45629.586750439819</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D388" s="5">
+        <v>20205217</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F388" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G388" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H388" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I388" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J388" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K388" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L388" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M388" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A389" s="8">
+        <v>45629.616123067128</v>
+      </c>
+      <c r="B389" s="9" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C389" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D389" s="9">
+        <v>20182308</v>
+      </c>
+      <c r="E389" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F389" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="G389" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H389" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I389" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J389" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K389" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L389" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N389" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A390" s="4">
+        <v>45629.708528912037</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D390" s="5">
+        <v>20191623</v>
+      </c>
+      <c r="E390" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F390" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="G390" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H390" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I390" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J390" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K390" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L390" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M390" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A391" s="8">
+        <v>45629.779627199074</v>
+      </c>
+      <c r="B391" s="9" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C391" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D391" s="9">
+        <v>20227073</v>
+      </c>
+      <c r="E391" s="9" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F391" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="G391" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H391" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I391" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J391" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K391" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L391" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M391" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A392" s="4">
+        <v>45629.793016944444</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D392" s="5">
+        <v>20241503</v>
+      </c>
+      <c r="E392" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F392" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="G392" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H392" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I392" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J392" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K392" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L392" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M392" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A393" s="8">
+        <v>45629.804192280091</v>
+      </c>
+      <c r="B393" s="9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C393" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="D393" s="9">
+        <v>20246715</v>
+      </c>
+      <c r="E393" s="9" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F393" s="10" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G393" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H393" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I393" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J393" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K393" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L393" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N393" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A394" s="4">
+        <v>45629.826123796302</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D394" s="5">
+        <v>20243253</v>
+      </c>
+      <c r="E394" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F394" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="G394" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H394" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I394" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J394" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K394" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L394" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M394" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A395" s="8">
+        <v>45629.894686863423</v>
+      </c>
+      <c r="B395" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C395" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D395" s="9">
+        <v>20231621</v>
+      </c>
+      <c r="E395" s="9" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F395" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="G395" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H395" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I395" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J395" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K395" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L395" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M395" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A396" s="20">
+        <v>45629.951192708337</v>
+      </c>
+      <c r="B396" s="21" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C396" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D396" s="21">
+        <v>20222830</v>
+      </c>
+      <c r="E396" s="21" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F396" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="G396" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H396" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I396" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J396" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K396" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L396" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M396" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="N396" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/R/data/quiz241125.xlsx
+++ b/R/data/quiz241125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B504B3EB-07AC-2145-A7F8-A1A6001F4A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225EFDF4-9E33-1C4B-8E51-673B77655676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47040" yWindow="1460" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4359" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4524" uniqueCount="1180">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3470,6 +3470,121 @@
   </si>
   <si>
     <t>이승재</t>
+  </si>
+  <si>
+    <t>fred0203@naver.com</t>
+  </si>
+  <si>
+    <t>언어청각학부 청각학전공</t>
+  </si>
+  <si>
+    <t>이강준</t>
+  </si>
+  <si>
+    <t>eunjin6604__@naver.com</t>
+  </si>
+  <si>
+    <t>남은진</t>
+  </si>
+  <si>
+    <t>04/29</t>
+  </si>
+  <si>
+    <t>ksfu03@naver.com</t>
+  </si>
+  <si>
+    <t>이규성</t>
+  </si>
+  <si>
+    <t>kimhemi05@gmail.com</t>
+  </si>
+  <si>
+    <t>김혜미</t>
+  </si>
+  <si>
+    <t>rhoy3156@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>노원철</t>
+  </si>
+  <si>
+    <t>11/12</t>
+  </si>
+  <si>
+    <t>cyj292513@naver.cpm</t>
+  </si>
+  <si>
+    <t>최영준</t>
+  </si>
+  <si>
+    <t>10/21</t>
+  </si>
+  <si>
+    <t>goeunsue@naver.com</t>
+  </si>
+  <si>
+    <t>고은수</t>
+  </si>
+  <si>
+    <t>hm703711@gmail.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어학과</t>
+  </si>
+  <si>
+    <t>박현민</t>
+  </si>
+  <si>
+    <t>saeul05@gmail.com</t>
+  </si>
+  <si>
+    <t>문새울</t>
+  </si>
+  <si>
+    <t>na1448@naver.com</t>
+  </si>
+  <si>
+    <t>강나현</t>
+  </si>
+  <si>
+    <t>njhouuu05@naver.com</t>
+  </si>
+  <si>
+    <t>남진호</t>
+  </si>
+  <si>
+    <t>06/30</t>
+  </si>
+  <si>
+    <t>mani4262421@naver.com</t>
+  </si>
+  <si>
+    <t>kmc20051114@gmail.com</t>
+  </si>
+  <si>
+    <t>11/14</t>
+  </si>
+  <si>
+    <t>haksun0217@naver.com</t>
+  </si>
+  <si>
+    <t>김학선</t>
+  </si>
+  <si>
+    <t>02/17</t>
+  </si>
+  <si>
+    <t>jytoto33@naver.com</t>
+  </si>
+  <si>
+    <t>김지윤</t>
+  </si>
+  <si>
+    <t>08/11</t>
+  </si>
+  <si>
+    <t>06/11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3910,7 +4025,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N396" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N411" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -4137,11 +4252,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N396"/>
+  <dimension ref="A1:N411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D399" sqref="D399"/>
+      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C421" sqref="C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20403,7 +20518,622 @@
       <c r="M396" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="N396" s="25"/>
+    </row>
+    <row r="397" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A397" s="8">
+        <v>45630.497244016209</v>
+      </c>
+      <c r="B397" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C397" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D397" s="9">
+        <v>20227091</v>
+      </c>
+      <c r="E397" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F397" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G397" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H397" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I397" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J397" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K397" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L397" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M397" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A398" s="4">
+        <v>45630.613612858797</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D398" s="5">
+        <v>20233408</v>
+      </c>
+      <c r="E398" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F398" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G398" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H398" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I398" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J398" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K398" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L398" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N398" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A399" s="8">
+        <v>45630.644440671298</v>
+      </c>
+      <c r="B399" s="9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C399" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D399" s="9">
+        <v>20201071</v>
+      </c>
+      <c r="E399" s="9" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F399" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="G399" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H399" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I399" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J399" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K399" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L399" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N399" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A400" s="4">
+        <v>45630.718749953703</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D400" s="5">
+        <v>20242112</v>
+      </c>
+      <c r="E400" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F400" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="G400" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H400" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I400" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J400" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K400" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L400" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M400" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A401" s="8">
+        <v>45630.726096261569</v>
+      </c>
+      <c r="B401" s="9" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C401" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D401" s="9">
+        <v>20202719</v>
+      </c>
+      <c r="E401" s="9" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F401" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G401" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H401" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I401" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J401" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K401" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L401" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M401" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A402" s="4">
+        <v>45630.74933741898</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D402" s="5">
+        <v>20242440</v>
+      </c>
+      <c r="E402" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F402" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G402" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H402" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I402" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J402" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K402" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L402" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N402" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A403" s="16">
+        <v>45630.768045439814</v>
+      </c>
+      <c r="B403" s="17" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C403" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D403" s="17">
+        <v>20242907</v>
+      </c>
+      <c r="E403" s="17" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F403" s="18" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G403" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H403" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I403" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J403" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K403" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L403" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N403" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A404" s="4">
+        <v>45630.83268655093</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D404" s="5">
+        <v>20202415</v>
+      </c>
+      <c r="E404" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F404" s="6" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G404" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H404" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I404" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J404" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K404" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L404" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N404" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A405" s="8">
+        <v>45630.841399525467</v>
+      </c>
+      <c r="B405" s="9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C405" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D405" s="9">
+        <v>20246621</v>
+      </c>
+      <c r="E405" s="9" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F405" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="G405" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H405" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I405" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J405" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K405" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L405" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M405" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A406" s="4">
+        <v>45630.856755486107</v>
+      </c>
+      <c r="B406" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C406" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D406" s="5">
+        <v>20243601</v>
+      </c>
+      <c r="E406" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F406" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="G406" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H406" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I406" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J406" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K406" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L406" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N406" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="407" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="8">
+        <v>45630.878421655092</v>
+      </c>
+      <c r="B407" s="9" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C407" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D407" s="9">
+        <v>20245156</v>
+      </c>
+      <c r="E407" s="9" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F407" s="10" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G407" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H407" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I407" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J407" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K407" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L407" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M407" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A408" s="4">
+        <v>45630.914211701383</v>
+      </c>
+      <c r="B408" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C408" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D408" s="5">
+        <v>20223022</v>
+      </c>
+      <c r="E408" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="F408" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G408" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H408" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I408" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J408" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K408" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L408" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M408" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A409" s="8">
+        <v>45630.978750011578</v>
+      </c>
+      <c r="B409" s="9" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C409" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D409" s="9">
+        <v>20243905</v>
+      </c>
+      <c r="E409" s="9" t="s">
+        <v>933</v>
+      </c>
+      <c r="F409" s="10" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G409" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H409" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I409" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J409" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K409" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L409" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M409" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A410" s="4">
+        <v>45630.991031770835</v>
+      </c>
+      <c r="B410" s="5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D410" s="5">
+        <v>20243814</v>
+      </c>
+      <c r="E410" s="5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F410" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G410" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H410" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I410" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J410" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K410" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L410" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M410" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A411" s="16">
+        <v>45630.99127569444</v>
+      </c>
+      <c r="B411" s="17" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C411" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D411" s="17">
+        <v>20243912</v>
+      </c>
+      <c r="E411" s="17" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F411" s="18" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G411" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H411" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I411" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J411" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K411" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L411" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M411" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N411" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/R/data/quiz241125.xlsx
+++ b/R/data/quiz241125.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225EFDF4-9E33-1C4B-8E51-673B77655676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9919CAB-F34E-9849-8B3C-D960CC85A462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47040" yWindow="1460" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47320" yWindow="2080" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4524" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4909" uniqueCount="1274">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3584,6 +3584,291 @@
   </si>
   <si>
     <t>06/11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010726kjm@naver.com</t>
+  </si>
+  <si>
+    <t>김정민</t>
+  </si>
+  <si>
+    <t>seungye04@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어</t>
+  </si>
+  <si>
+    <t>정승예</t>
+  </si>
+  <si>
+    <t>gur3174@gmail.com</t>
+  </si>
+  <si>
+    <t>이소담</t>
+  </si>
+  <si>
+    <t>06/17</t>
+  </si>
+  <si>
+    <t>sehyeon0330@naver.com</t>
+  </si>
+  <si>
+    <t>김세현</t>
+  </si>
+  <si>
+    <t>dlxotjq27@gmail.com</t>
+  </si>
+  <si>
+    <t>이태섭</t>
+  </si>
+  <si>
+    <t>jhry0903@naver.com</t>
+  </si>
+  <si>
+    <t>조하령</t>
+  </si>
+  <si>
+    <t>bhyejin420@gmail.com</t>
+  </si>
+  <si>
+    <t>박혜진</t>
+  </si>
+  <si>
+    <t>02/03</t>
+  </si>
+  <si>
+    <t>gisung5864@gmail.com</t>
+  </si>
+  <si>
+    <t>조기성</t>
+  </si>
+  <si>
+    <t>08/01</t>
+  </si>
+  <si>
+    <t>hg2635394@gmail.com</t>
+  </si>
+  <si>
+    <t>철학과</t>
+  </si>
+  <si>
+    <t>김현준</t>
+  </si>
+  <si>
+    <t>07/27</t>
+  </si>
+  <si>
+    <t>ljy46tkd@naver.com</t>
+  </si>
+  <si>
+    <t>이정연</t>
+  </si>
+  <si>
+    <t>cbh3trust4@naver.com</t>
+  </si>
+  <si>
+    <t>조정현</t>
+  </si>
+  <si>
+    <t>02/11</t>
+  </si>
+  <si>
+    <t>minjeongkim329@gmail.com</t>
+  </si>
+  <si>
+    <t>간호</t>
+  </si>
+  <si>
+    <t>김민정</t>
+  </si>
+  <si>
+    <t>alsco92001@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어</t>
+  </si>
+  <si>
+    <t>오민채</t>
+  </si>
+  <si>
+    <t>tngusvhs@gmail.com</t>
+  </si>
+  <si>
+    <t>이수현</t>
+  </si>
+  <si>
+    <t>wizkids0418@naver.com</t>
+  </si>
+  <si>
+    <t>박혜인</t>
+  </si>
+  <si>
+    <t>04/18</t>
+  </si>
+  <si>
+    <t>hyerujys2005@naver.com</t>
+  </si>
+  <si>
+    <t>정윤수</t>
+  </si>
+  <si>
+    <t>a01053076907@gmail.com</t>
+  </si>
+  <si>
+    <t>융학과학수사학과</t>
+  </si>
+  <si>
+    <t>원은성</t>
+  </si>
+  <si>
+    <t>11/17</t>
+  </si>
+  <si>
+    <t>bigeyejimmy1@naver.com</t>
+  </si>
+  <si>
+    <t>kesha11@naver.com</t>
+  </si>
+  <si>
+    <t>윤주호</t>
+  </si>
+  <si>
+    <t>bcy1976@naver.com</t>
+  </si>
+  <si>
+    <t>변치윤</t>
+  </si>
+  <si>
+    <t>krcar1002@gmail.com</t>
+  </si>
+  <si>
+    <t>김재호</t>
+  </si>
+  <si>
+    <t>sbysooo@naver.com</t>
+  </si>
+  <si>
+    <t>신윤수</t>
+  </si>
+  <si>
+    <t>06/26</t>
+  </si>
+  <si>
+    <t>jmmj99@naver.com</t>
+  </si>
+  <si>
+    <t>이지헌</t>
+  </si>
+  <si>
+    <t>thddnjs1030@naver.com</t>
+  </si>
+  <si>
+    <t>박송원</t>
+  </si>
+  <si>
+    <t>minnjae119@gmail.com</t>
+  </si>
+  <si>
+    <t>최민재</t>
+  </si>
+  <si>
+    <t>08/24</t>
+  </si>
+  <si>
+    <t>06/02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pjobin0821@naver.com</t>
+  </si>
+  <si>
+    <t>조유빈</t>
+  </si>
+  <si>
+    <t>08/21</t>
+  </si>
+  <si>
+    <t>ksy91637@gmail.com</t>
+  </si>
+  <si>
+    <t>스마트IOT</t>
+  </si>
+  <si>
+    <t>김성열</t>
+  </si>
+  <si>
+    <t>09/16</t>
+  </si>
+  <si>
+    <t>zjxps2007@gmail.com</t>
+  </si>
+  <si>
+    <t>콘텐츠 it 전공</t>
+  </si>
+  <si>
+    <t>조인호</t>
+  </si>
+  <si>
+    <t>hizero0223@naver.com</t>
+  </si>
+  <si>
+    <t>조하영</t>
+  </si>
+  <si>
+    <t>rladud30601@naver.com</t>
+  </si>
+  <si>
+    <t>김영</t>
+  </si>
+  <si>
+    <t>08/15</t>
+  </si>
+  <si>
+    <t>cjh5779@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠 IT</t>
+  </si>
+  <si>
+    <t>최정환</t>
+  </si>
+  <si>
+    <t>seokhoo1@naver.com</t>
+  </si>
+  <si>
+    <t>박석호</t>
+  </si>
+  <si>
+    <t>03/12</t>
+  </si>
+  <si>
+    <t>leejs7807@gmail.com</t>
+  </si>
+  <si>
+    <t>이종선</t>
+  </si>
+  <si>
+    <t>05/06</t>
+  </si>
+  <si>
+    <t>sjhaa303028@naver.com</t>
+  </si>
+  <si>
+    <t>신중현</t>
+  </si>
+  <si>
+    <t>emf1811@naver.com</t>
+  </si>
+  <si>
+    <t>김들</t>
+  </si>
+  <si>
+    <t>10/02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06/14</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4025,7 +4310,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N411" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N446" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -4252,11 +4537,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N411"/>
+  <dimension ref="A1:N446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C421" sqref="C421"/>
+      <pane ySplit="1" topLeftCell="A399" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F451" sqref="F451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21133,7 +21418,1444 @@
       <c r="M411" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="N411" s="25"/>
+    </row>
+    <row r="412" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A412" s="4">
+        <v>45631.384594270829</v>
+      </c>
+      <c r="B412" s="5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C412" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D412" s="5">
+        <v>20203513</v>
+      </c>
+      <c r="E412" s="5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F412" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="G412" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H412" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I412" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J412" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K412" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L412" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M412" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A413" s="8">
+        <v>45631.422834004625</v>
+      </c>
+      <c r="B413" s="9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C413" s="9" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D413" s="9">
+        <v>20233846</v>
+      </c>
+      <c r="E413" s="9" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F413" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="G413" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H413" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I413" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J413" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K413" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L413" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N413" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A414" s="4">
+        <v>45631.455722268518</v>
+      </c>
+      <c r="B414" s="5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C414" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D414" s="5">
+        <v>20242225</v>
+      </c>
+      <c r="E414" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F414" s="6" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G414" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H414" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I414" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J414" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K414" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L414" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N414" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A415" s="8">
+        <v>45631.514738576385</v>
+      </c>
+      <c r="B415" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C415" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D415" s="9">
+        <v>20212609</v>
+      </c>
+      <c r="E415" s="9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F415" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="G415" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H415" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I415" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J415" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K415" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L415" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M415" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A416" s="4">
+        <v>45631.548414537036</v>
+      </c>
+      <c r="B416" s="5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D416" s="5">
+        <v>20213023</v>
+      </c>
+      <c r="E416" s="5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F416" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="G416" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H416" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I416" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J416" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K416" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L416" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N416" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="417" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A417" s="8">
+        <v>45631.602762696755</v>
+      </c>
+      <c r="B417" s="9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C417" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D417" s="9">
+        <v>20241097</v>
+      </c>
+      <c r="E417" s="9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F417" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="G417" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H417" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I417" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J417" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K417" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L417" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M417" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="418" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A418" s="4">
+        <v>45631.647805092594</v>
+      </c>
+      <c r="B418" s="5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C418" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D418" s="5">
+        <v>20245176</v>
+      </c>
+      <c r="E418" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F418" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G418" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H418" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I418" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J418" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K418" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L418" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M418" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A419" s="8">
+        <v>45631.723191875004</v>
+      </c>
+      <c r="B419" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C419" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="D419" s="9">
+        <v>20216526</v>
+      </c>
+      <c r="E419" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F419" s="10" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G419" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H419" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I419" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J419" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K419" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L419" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M419" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="420" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A420" s="4">
+        <v>45631.796610590274</v>
+      </c>
+      <c r="B420" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C420" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D420" s="5">
+        <v>20231033</v>
+      </c>
+      <c r="E420" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F420" s="6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G420" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H420" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I420" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J420" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K420" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L420" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M420" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="421" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A421" s="8">
+        <v>45631.885888148143</v>
+      </c>
+      <c r="B421" s="9" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C421" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D421" s="9">
+        <v>20242737</v>
+      </c>
+      <c r="E421" s="9" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F421" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="G421" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H421" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I421" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J421" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K421" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L421" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M421" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="422" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A422" s="20">
+        <v>45631.898734340277</v>
+      </c>
+      <c r="B422" s="21" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C422" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D422" s="21">
+        <v>20242749</v>
+      </c>
+      <c r="E422" s="21" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F422" s="22" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G422" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H422" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I422" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J422" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K422" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L422" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M422" s="25"/>
+      <c r="N422" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="423" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A423" s="8">
+        <v>45631.949159976852</v>
+      </c>
+      <c r="B423" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C423" s="9" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D423" s="9">
+        <v>20246218</v>
+      </c>
+      <c r="E423" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F423" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="G423" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H423" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I423" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J423" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K423" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L423" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M423" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="424" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A424" s="4">
+        <v>45631.962760162038</v>
+      </c>
+      <c r="B424" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C424" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D424" s="5">
+        <v>20245201</v>
+      </c>
+      <c r="E424" s="5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F424" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="G424" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H424" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I424" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J424" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K424" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L424" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N424" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="425" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A425" s="8">
+        <v>45631.962853159726</v>
+      </c>
+      <c r="B425" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C425" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D425" s="9">
+        <v>20243529</v>
+      </c>
+      <c r="E425" s="9" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F425" s="10" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G425" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H425" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I425" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J425" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K425" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L425" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N425" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="426" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A426" s="4">
+        <v>45631.963421585649</v>
+      </c>
+      <c r="B426" s="5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D426" s="5">
+        <v>20242327</v>
+      </c>
+      <c r="E426" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F426" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G426" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H426" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I426" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J426" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K426" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L426" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M426" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="427" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A427" s="8">
+        <v>45632.096566724533</v>
+      </c>
+      <c r="B427" s="9" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C427" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D427" s="9">
+        <v>20242575</v>
+      </c>
+      <c r="E427" s="9" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F427" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="G427" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H427" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I427" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J427" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K427" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L427" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M427" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="428" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A428" s="4">
+        <v>45632.185653113425</v>
+      </c>
+      <c r="B428" s="5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D428" s="5">
+        <v>20246927</v>
+      </c>
+      <c r="E428" s="5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F428" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G428" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H428" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I428" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J428" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K428" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L428" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N428" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="429" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A429" s="8">
+        <v>45632.379284143521</v>
+      </c>
+      <c r="B429" s="9" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C429" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D429" s="9">
+        <v>20182850</v>
+      </c>
+      <c r="E429" s="9" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F429" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="G429" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H429" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I429" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J429" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K429" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L429" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N429" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="430" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A430" s="4">
+        <v>45632.404226909726</v>
+      </c>
+      <c r="B430" s="5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D430" s="5">
+        <v>20211059</v>
+      </c>
+      <c r="E430" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F430" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G430" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H430" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I430" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J430" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K430" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L430" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N430" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="431" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A431" s="8">
+        <v>45632.484168206021</v>
+      </c>
+      <c r="B431" s="9" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C431" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D431" s="9">
+        <v>20235180</v>
+      </c>
+      <c r="E431" s="9" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F431" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="G431" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H431" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I431" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J431" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K431" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L431" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N431" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="432" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A432" s="4">
+        <v>45632.525198541669</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C432" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D432" s="5">
+        <v>20242109</v>
+      </c>
+      <c r="E432" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F432" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="G432" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H432" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I432" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J432" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K432" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L432" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N432" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="433" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A433" s="8">
+        <v>45632.527909270837</v>
+      </c>
+      <c r="B433" s="9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C433" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D433" s="9">
+        <v>20227155</v>
+      </c>
+      <c r="E433" s="9" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F433" s="10" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G433" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H433" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I433" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J433" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K433" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L433" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M433" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="434" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A434" s="4">
+        <v>45632.558690717589</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C434" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="D434" s="5">
+        <v>20246930</v>
+      </c>
+      <c r="E434" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F434" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G434" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H434" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I434" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J434" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K434" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L434" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M434" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A435" s="8">
+        <v>45632.590068749996</v>
+      </c>
+      <c r="B435" s="9" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C435" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D435" s="9">
+        <v>20171035</v>
+      </c>
+      <c r="E435" s="9" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F435" s="10" t="s">
+        <v>961</v>
+      </c>
+      <c r="G435" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H435" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I435" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J435" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K435" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L435" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M435" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A436" s="20">
+        <v>45632.628264548606</v>
+      </c>
+      <c r="B436" s="21" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C436" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D436" s="21">
+        <v>20243257</v>
+      </c>
+      <c r="E436" s="21" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F436" s="22" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G436" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H436" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I436" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J436" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K436" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L436" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M436" s="25"/>
+      <c r="N436" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="437" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A437" s="8">
+        <v>45632.635993657408</v>
+      </c>
+      <c r="B437" s="9" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C437" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D437" s="9">
+        <v>20241730</v>
+      </c>
+      <c r="E437" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F437" s="10" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G437" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H437" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I437" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J437" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K437" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L437" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M437" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A438" s="4">
+        <v>45632.652066469906</v>
+      </c>
+      <c r="B438" s="5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D438" s="5">
+        <v>20205139</v>
+      </c>
+      <c r="E438" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F438" s="6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G438" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H438" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I438" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J438" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K438" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L438" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N438" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A439" s="8">
+        <v>45632.658787546301</v>
+      </c>
+      <c r="B439" s="9" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C439" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D439" s="9">
+        <v>20195258</v>
+      </c>
+      <c r="E439" s="9" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F439" s="10" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G439" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H439" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I439" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J439" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K439" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L439" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N439" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A440" s="4">
+        <v>45632.661188668979</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D440" s="5">
+        <v>20243038</v>
+      </c>
+      <c r="E440" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F440" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="G440" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H440" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I440" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J440" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K440" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L440" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M440" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="441" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A441" s="8">
+        <v>45632.690434756943</v>
+      </c>
+      <c r="B441" s="9" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C441" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D441" s="9">
+        <v>20202925</v>
+      </c>
+      <c r="E441" s="9" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F441" s="10" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G441" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H441" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I441" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J441" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K441" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L441" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M441" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="442" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A442" s="4">
+        <v>45632.696413888887</v>
+      </c>
+      <c r="B442" s="5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C442" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D442" s="5">
+        <v>20215262</v>
+      </c>
+      <c r="E442" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F442" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="G442" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H442" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I442" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J442" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K442" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L442" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M442" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="443" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A443" s="8">
+        <v>45632.783814745373</v>
+      </c>
+      <c r="B443" s="9" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C443" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D443" s="9">
+        <v>20241038</v>
+      </c>
+      <c r="E443" s="9" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F443" s="10" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G443" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H443" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I443" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J443" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K443" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L443" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M443" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="444" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A444" s="4">
+        <v>45632.829521180553</v>
+      </c>
+      <c r="B444" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C444" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="D444" s="5">
+        <v>20223249</v>
+      </c>
+      <c r="E444" s="5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F444" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G444" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H444" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I444" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J444" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K444" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L444" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N444" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="445" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A445" s="8">
+        <v>45632.852723993055</v>
+      </c>
+      <c r="B445" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C445" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="D445" s="9">
+        <v>20246741</v>
+      </c>
+      <c r="E445" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F445" s="10" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G445" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H445" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I445" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J445" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K445" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L445" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N445" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="446" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A446" s="20">
+        <v>45632.864435625001</v>
+      </c>
+      <c r="B446" s="21" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C446" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D446" s="21">
+        <v>20233605</v>
+      </c>
+      <c r="E446" s="21" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F446" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="G446" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H446" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I446" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J446" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K446" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L446" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M446" s="25"/>
+      <c r="N446" s="23" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
